--- a/DungeonShooting_Godot/excel/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/WeaponBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowWidth="29050" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="222">
   <si>
     <t>Id</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>OtherSoundMap</t>
-  </si>
-  <si>
-    <t>AiUseAttribute</t>
   </si>
   <si>
     <t>AiAttackAttr</t>
@@ -406,11 +403,6 @@
     <t>其他音效</t>
   </si>
   <si>
-    <t>Ai属性
-Ai 使用该武器时的武器数据, 设置该字段, 可让同一把武器在敌人和玩家手上有不同属性
-如果不填则Ai和玩家使用同一种属性</t>
-  </si>
-  <si>
     <t>Ai使用该武器开火时的一些额外配置属性
 玩家使用的武器不需要填写该字段</t>
   </si>
@@ -451,9 +443,6 @@
     <t>{string:$Sound}</t>
   </si>
   <si>
-    <t>$WeaponBase</t>
-  </si>
-  <si>
     <t>$AiAttackAttr</t>
   </si>
   <si>
@@ -496,217 +485,226 @@
     <t>beLoaded0011</t>
   </si>
   <si>
+    <t>0001_ai</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
     <t>0002</t>
   </si>
   <si>
-    <t>[3]</t>
+    <t>霰弹枪</t>
+  </si>
+  <si>
+    <t>weapon0002</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[5,6]</t>
+  </si>
+  <si>
+    <t>shell0002</t>
+  </si>
+  <si>
+    <t>shooting0003</t>
+  </si>
+  <si>
+    <t>reloadBegin0002</t>
+  </si>
+  <si>
+    <t>reloading0002</t>
+  </si>
+  <si>
+    <t>reloadFinish0002</t>
+  </si>
+  <si>
+    <t>beLoaded0005</t>
+  </si>
+  <si>
+    <t>0002_ai</t>
   </si>
   <si>
     <t>0003</t>
   </si>
   <si>
-    <t>霰弹枪</t>
-  </si>
-  <si>
-    <t>weapon0002</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[5,6]</t>
-  </si>
-  <si>
-    <t>shell0002</t>
-  </si>
-  <si>
-    <t>shooting0003</t>
-  </si>
-  <si>
-    <t>reloadBegin0002</t>
-  </si>
-  <si>
-    <t>reloading0002</t>
-  </si>
-  <si>
-    <t>reloadFinish0002</t>
-  </si>
-  <si>
-    <t>beLoaded0005</t>
+    <t>手枪</t>
+  </si>
+  <si>
+    <t>weapon0003</t>
+  </si>
+  <si>
+    <t>[3,5]</t>
+  </si>
+  <si>
+    <t>shooting0004</t>
+  </si>
+  <si>
+    <t>reloading0001</t>
+  </si>
+  <si>
+    <t>beLoaded0015</t>
+  </si>
+  <si>
+    <t>0003_ai</t>
   </si>
   <si>
     <t>0004</t>
   </si>
   <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>weapon0004</t>
+  </si>
+  <si>
+    <t>[-8]</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>0004_ai</t>
+  </si>
+  <si>
     <t>0005</t>
   </si>
   <si>
-    <t>手枪</t>
-  </si>
-  <si>
-    <t>weapon0003</t>
-  </si>
-  <si>
-    <t>[3,5]</t>
-  </si>
-  <si>
-    <t>shooting0004</t>
-  </si>
-  <si>
-    <t>reloading0001</t>
-  </si>
-  <si>
-    <t>beLoaded0015</t>
+    <t>狙击枪</t>
+  </si>
+  <si>
+    <t>weapon0005</t>
+  </si>
+  <si>
+    <t>[5,7]</t>
+  </si>
+  <si>
+    <t>shell0003</t>
+  </si>
+  <si>
+    <t>shooting0008</t>
+  </si>
+  <si>
+    <t>reloadBegin0009</t>
+  </si>
+  <si>
+    <t>beLoaded0007</t>
+  </si>
+  <si>
+    <t>0005_ai</t>
   </si>
   <si>
     <t>0006</t>
   </si>
   <si>
+    <t>冲锋枪</t>
+  </si>
+  <si>
+    <t>weapon0006</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>shooting0002</t>
+  </si>
+  <si>
+    <t>reloadBegin0005</t>
+  </si>
+  <si>
+    <t>beLoaded0016</t>
+  </si>
+  <si>
+    <t>0006_ai</t>
+  </si>
+  <si>
     <t>0007</t>
   </si>
   <si>
-    <t>刀</t>
-  </si>
-  <si>
-    <t>weapon0004</t>
-  </si>
-  <si>
-    <t>[-8]</t>
-  </si>
-  <si>
-    <t>2001</t>
+    <t>汤姆逊冲锋枪</t>
+  </si>
+  <si>
+    <t>weapon0007</t>
+  </si>
+  <si>
+    <t>shooting0007</t>
+  </si>
+  <si>
+    <t>reloadBegin0006</t>
+  </si>
+  <si>
+    <t>beLoaded0017</t>
+  </si>
+  <si>
+    <t>0007_ai</t>
   </si>
   <si>
     <t>0008</t>
   </si>
   <si>
+    <t>激光手枪</t>
+  </si>
+  <si>
+    <t>weapon0008</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/weapon/ShotFire2.tscn</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>shooting0010</t>
+  </si>
+  <si>
+    <t>reloadBegin0011</t>
+  </si>
+  <si>
+    <t>reloadFinish0003</t>
+  </si>
+  <si>
+    <t>0008_ai</t>
+  </si>
+  <si>
     <t>0009</t>
   </si>
   <si>
-    <t>狙击枪</t>
-  </si>
-  <si>
-    <t>weapon0005</t>
-  </si>
-  <si>
-    <t>[5,7]</t>
-  </si>
-  <si>
-    <t>shell0003</t>
-  </si>
-  <si>
-    <t>shooting0008</t>
-  </si>
-  <si>
-    <t>reloadBegin0009</t>
-  </si>
-  <si>
-    <t>beLoaded0007</t>
+    <t>榴弹发射器</t>
+  </si>
+  <si>
+    <t>weapon0009</t>
+  </si>
+  <si>
+    <t>shell0004</t>
+  </si>
+  <si>
+    <t>shooting0011</t>
+  </si>
+  <si>
+    <t>reloadBegin0012</t>
+  </si>
+  <si>
+    <t>reloading0003</t>
+  </si>
+  <si>
+    <t>reloadFinish0004</t>
+  </si>
+  <si>
+    <t>0009_ai</t>
   </si>
   <si>
     <t>0010</t>
   </si>
   <si>
-    <t>0011</t>
-  </si>
-  <si>
-    <t>冲锋枪</t>
-  </si>
-  <si>
-    <t>weapon0006</t>
-  </si>
-  <si>
-    <t>[1,2]</t>
-  </si>
-  <si>
-    <t>shooting0002</t>
-  </si>
-  <si>
-    <t>reloadBegin0005</t>
-  </si>
-  <si>
-    <t>beLoaded0016</t>
-  </si>
-  <si>
-    <t>0012</t>
-  </si>
-  <si>
-    <t>0013</t>
-  </si>
-  <si>
-    <t>汤姆逊冲锋枪</t>
-  </si>
-  <si>
-    <t>weapon0007</t>
-  </si>
-  <si>
-    <t>shooting0007</t>
-  </si>
-  <si>
-    <t>reloadBegin0006</t>
-  </si>
-  <si>
-    <t>beLoaded0017</t>
-  </si>
-  <si>
-    <t>0014</t>
-  </si>
-  <si>
-    <t>0015</t>
-  </si>
-  <si>
-    <t>激光手枪</t>
-  </si>
-  <si>
-    <t>weapon0008</t>
-  </si>
-  <si>
-    <t>[2,3]</t>
-  </si>
-  <si>
-    <t>res://prefab/effect/weapon/ShotFire2.tscn</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>shooting0010</t>
-  </si>
-  <si>
-    <t>reloadBegin0011</t>
-  </si>
-  <si>
-    <t>reloadFinish0003</t>
-  </si>
-  <si>
-    <t>0016</t>
-  </si>
-  <si>
-    <t>0017</t>
-  </si>
-  <si>
-    <t>榴弹发射器</t>
-  </si>
-  <si>
-    <t>weapon0009</t>
-  </si>
-  <si>
-    <t>shell0004</t>
-  </si>
-  <si>
-    <t>shooting0011</t>
-  </si>
-  <si>
-    <t>reloadBegin0012</t>
-  </si>
-  <si>
-    <t>reloading0003</t>
-  </si>
-  <si>
-    <t>reloadFinish0004</t>
-  </si>
-  <si>
-    <t>0018</t>
+    <t>weapon0010</t>
+  </si>
+  <si>
+    <t>0010_ai</t>
   </si>
 </sst>
 </file>
@@ -1706,73 +1704,73 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BM21"/>
+  <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="W13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AL19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA16" sqref="AA16"/>
+      <selection pane="bottomRight" activeCell="AO22" sqref="AO22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.225" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.2272727272727" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1083333333333" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1083333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.2166666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8916666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1833333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7833333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.0416666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.2166666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="33.475" style="1" customWidth="1"/>
-    <col min="15" max="15" width="34.2833333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6416666666667" style="1" customWidth="1"/>
-    <col min="17" max="17" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="18" max="19" width="25.075" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.225" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.6416666666667" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24.8916666666667" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="24" max="24" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20.9583333333333" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.1083333333333" style="1" customWidth="1"/>
-    <col min="27" max="28" width="23.7833333333333" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22.5416666666667" style="1" customWidth="1"/>
-    <col min="30" max="30" width="20.4666666666667" style="1" customWidth="1"/>
-    <col min="31" max="31" width="26.6583333333333" style="1" customWidth="1"/>
-    <col min="32" max="32" width="26.5083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6818181818182" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1090909090909" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6636363636364" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1090909090909" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8909090909091" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7818181818182" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.0454545454545" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.2181818181818" style="1" customWidth="1"/>
+    <col min="14" max="14" width="33.4727272727273" style="1" customWidth="1"/>
+    <col min="15" max="15" width="34.2818181818182" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6454545454545" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.6636363636364" style="1" customWidth="1"/>
+    <col min="18" max="19" width="25.0727272727273" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.6454545454545" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.8909090909091" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.3363636363636" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.3363636363636" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20.9545454545455" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.1090909090909" style="1" customWidth="1"/>
+    <col min="27" max="28" width="23.7818181818182" style="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5454545454545" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20.4636363636364" style="1" customWidth="1"/>
+    <col min="31" max="31" width="26.6545454545455" style="1" customWidth="1"/>
+    <col min="32" max="32" width="26.5090909090909" style="1" customWidth="1"/>
     <col min="33" max="33" width="29.2" style="1" customWidth="1"/>
     <col min="34" max="34" width="30" style="1" customWidth="1"/>
-    <col min="35" max="35" width="34.4083333333333" style="1" customWidth="1"/>
-    <col min="36" max="36" width="17.7833333333333" style="1" customWidth="1"/>
+    <col min="35" max="35" width="34.4090909090909" style="1" customWidth="1"/>
+    <col min="36" max="36" width="17.7818181818182" style="1" customWidth="1"/>
     <col min="37" max="37" width="20" style="1" customWidth="1"/>
-    <col min="38" max="38" width="30.9833333333333" style="1" customWidth="1"/>
-    <col min="39" max="39" width="22.9666666666667" style="1" customWidth="1"/>
+    <col min="38" max="38" width="30.9818181818182" style="1" customWidth="1"/>
+    <col min="39" max="39" width="22.9636363636364" style="1" customWidth="1"/>
     <col min="40" max="40" width="23.7" style="1" customWidth="1"/>
-    <col min="41" max="42" width="27.6416666666667" style="1" customWidth="1"/>
-    <col min="43" max="43" width="27.7833333333333" style="2" customWidth="1"/>
-    <col min="44" max="46" width="27.7833333333333" style="1" customWidth="1"/>
-    <col min="47" max="50" width="24.075" style="1" customWidth="1"/>
-    <col min="51" max="51" width="21.1083333333333" style="1" customWidth="1"/>
+    <col min="41" max="42" width="27.6454545454545" style="1" customWidth="1"/>
+    <col min="43" max="43" width="27.7818181818182" style="2" customWidth="1"/>
+    <col min="44" max="46" width="27.7818181818182" style="1" customWidth="1"/>
+    <col min="47" max="50" width="24.0727272727273" style="1" customWidth="1"/>
+    <col min="51" max="51" width="21.1090909090909" style="1" customWidth="1"/>
     <col min="52" max="52" width="22.1" style="1" customWidth="1"/>
-    <col min="53" max="53" width="29.7583333333333" style="1" customWidth="1"/>
-    <col min="54" max="54" width="20.1166666666667" style="1" customWidth="1"/>
-    <col min="55" max="55" width="25.225" style="1" customWidth="1"/>
+    <col min="53" max="53" width="29.7545454545455" style="1" customWidth="1"/>
+    <col min="54" max="54" width="20.1181818181818" style="1" customWidth="1"/>
+    <col min="55" max="55" width="25.2272727272727" style="1" customWidth="1"/>
     <col min="56" max="56" width="23.7" style="1" customWidth="1"/>
-    <col min="57" max="57" width="37.925" style="1" customWidth="1"/>
-    <col min="58" max="58" width="22.5916666666667" style="1" customWidth="1"/>
-    <col min="59" max="59" width="30.4666666666667" style="1" customWidth="1"/>
-    <col min="60" max="60" width="31.8583333333333" style="1" customWidth="1"/>
-    <col min="61" max="62" width="32.4666666666667" style="3" customWidth="1"/>
+    <col min="57" max="57" width="37.9272727272727" style="1" customWidth="1"/>
+    <col min="58" max="58" width="22.5909090909091" style="1" customWidth="1"/>
+    <col min="59" max="59" width="30.4636363636364" style="1" customWidth="1"/>
+    <col min="60" max="60" width="31.8545454545455" style="1" customWidth="1"/>
+    <col min="61" max="61" width="32.4636363636364" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:62">
+    <row r="1" ht="31" customHeight="1" spans="1:61">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1956,398 +1954,389 @@
       <c r="BI1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+    </row>
+    <row r="2" ht="114" customHeight="1" spans="1:64">
+      <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" ht="114" customHeight="1" spans="1:65">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BI2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="BJ2" s="6"/>
       <c r="BK2" s="6"/>
       <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:62">
+    <row r="3" ht="27" customHeight="1" spans="1:61">
       <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="BB3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AR3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AV3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BI3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AZ3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BH3" s="1" t="s">
+    </row>
+    <row r="4" ht="57" customHeight="1" spans="1:61">
+      <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="4" ht="57" customHeight="1" spans="1:62">
-      <c r="A4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2404,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -2425,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD4" s="1">
         <v>0</v>
@@ -2449,7 +2438,7 @@
         <v>2</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AL4" s="1">
         <v>35</v>
@@ -2464,58 +2453,55 @@
         <v>1</v>
       </c>
       <c r="AP4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AQ4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AS4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AY4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AV4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="BA4" s="1">
         <v>0.2</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="BE4" s="1">
         <v>0.4</v>
       </c>
-      <c r="BI4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="BJ4" s="7"/>
+      <c r="BI4" s="7"/>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:62">
+    <row r="5" ht="57" customHeight="1" spans="1:61">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2572,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="W5" s="1">
         <v>3</v>
@@ -2593,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD5" s="1">
         <v>0</v>
@@ -2617,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AL5" s="1">
         <v>35</v>
@@ -2632,61 +2618,60 @@
         <v>1</v>
       </c>
       <c r="AP5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AQ5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AS5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AY5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AV5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="BA5" s="1">
         <v>0.2</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="BE5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="7" t="s">
-        <v>138</v>
+      <c r="BI5" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:62">
+    <row r="6" ht="57" customHeight="1" spans="1:61">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2743,7 +2728,7 @@
         <v>0.6</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W6" s="1">
         <v>0</v>
@@ -2764,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AD6" s="1">
         <v>0</v>
@@ -2788,7 +2773,7 @@
         <v>4</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AL6" s="1">
         <v>35</v>
@@ -2803,13 +2788,13 @@
         <v>1</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AS6" s="1" t="b">
         <v>0</v>
@@ -2818,55 +2803,52 @@
         <v>0.2</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AV6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AY6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="BE6" s="1">
         <v>0.3</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="BG6" s="1">
         <v>0</v>
       </c>
-      <c r="BI6" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="BJ6" s="7"/>
+      <c r="BI6" s="7"/>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:62">
+    <row r="7" ht="57" customHeight="1" spans="1:61">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2923,7 +2905,7 @@
         <v>0.6</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W7" s="1">
         <v>3.5</v>
@@ -2944,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AD7" s="1">
         <v>0</v>
@@ -2968,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AL7" s="1">
         <v>35</v>
@@ -2983,13 +2965,13 @@
         <v>1</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AS7" s="1" t="b">
         <v>0</v>
@@ -2998,58 +2980,57 @@
         <v>0.2</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AV7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AY7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="BE7" s="1">
         <v>0.3</v>
       </c>
       <c r="BF7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" ht="57" customHeight="1" spans="1:61">
+      <c r="A8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="7"/>
-      <c r="BJ7" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" ht="57" customHeight="1" spans="1:62">
-      <c r="A8" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3106,7 +3087,7 @@
         <v>0.05</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -3127,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD8" s="1">
         <v>0</v>
@@ -3151,7 +3132,7 @@
         <v>4</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AL8" s="1">
         <v>35</v>
@@ -3166,58 +3147,55 @@
         <v>1</v>
       </c>
       <c r="AP8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AQ8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR8" s="1" t="s">
+      <c r="AX8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AS8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="AY8" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="BA8" s="1">
         <v>0</v>
       </c>
       <c r="BD8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BE8" s="1">
         <v>0.43</v>
       </c>
-      <c r="BI8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="BJ8" s="7"/>
+      <c r="BI8" s="7"/>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:62">
+    <row r="9" ht="57" customHeight="1" spans="1:61">
       <c r="A9" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3274,7 +3252,7 @@
         <v>0.05</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W9" s="1">
         <v>1.3</v>
@@ -3295,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD9" s="1">
         <v>0</v>
@@ -3319,7 +3297,7 @@
         <v>4</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AL9" s="1">
         <v>35</v>
@@ -3334,61 +3312,60 @@
         <v>1</v>
       </c>
       <c r="AP9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AQ9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR9" s="1" t="s">
+      <c r="AX9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AS9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="AY9" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="BA9" s="1">
         <v>0</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BE9" s="1">
         <v>0.43</v>
       </c>
-      <c r="BI9" s="7"/>
-      <c r="BJ9" s="7" t="s">
-        <v>153</v>
+      <c r="BI9" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:62">
+    <row r="10" ht="57" customHeight="1" spans="1:61">
       <c r="A10" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3445,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W10" s="1">
         <v>0</v>
@@ -3466,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD10" s="1">
         <v>0</v>
@@ -3490,7 +3467,7 @@
         <v>7</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AL10" s="1">
         <v>24</v>
@@ -3506,34 +3483,31 @@
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AV10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="BJ10" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="BI10" s="7"/>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:62">
+    <row r="11" ht="57" customHeight="1" spans="1:61">
       <c r="A11" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3590,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W11" s="1">
         <v>3</v>
@@ -3611,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD11" s="1">
         <v>0</v>
@@ -3635,7 +3609,7 @@
         <v>7</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AL11" s="1">
         <v>24</v>
@@ -3651,37 +3625,36 @@
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI11" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" ht="57" customHeight="1" spans="1:61">
+      <c r="A12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AT11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI11" s="7"/>
-      <c r="BJ11" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" ht="57" customHeight="1" spans="1:62">
-      <c r="A12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3738,7 +3711,7 @@
         <v>0.9</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
@@ -3759,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD12" s="1">
         <v>0</v>
@@ -3783,7 +3756,7 @@
         <v>5</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AL12" s="1">
         <v>20</v>
@@ -3798,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AS12" s="1" t="b">
         <v>0</v>
@@ -3813,49 +3786,46 @@
         <v>0.2</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AV12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AY12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AZ12" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="7"/>
+    </row>
+    <row r="13" ht="57" customHeight="1" spans="1:61">
+      <c r="A13" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AZ12" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="BA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="BG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="BJ12" s="7"/>
-    </row>
-    <row r="13" ht="57" customHeight="1" spans="1:62">
-      <c r="A13" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3912,7 +3882,7 @@
         <v>0.9</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W13" s="1">
         <v>5</v>
@@ -3933,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD13" s="1">
         <v>0</v>
@@ -3957,7 +3927,7 @@
         <v>5</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AL13" s="1">
         <v>20</v>
@@ -3972,13 +3942,13 @@
         <v>1</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AS13" s="1" t="b">
         <v>0</v>
@@ -3987,51 +3957,51 @@
         <v>0.2</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AV13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AZ13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" ht="57" customHeight="1" spans="1:61">
+      <c r="A14" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="BA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BE13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="BG13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" ht="57" customHeight="1" spans="1:62">
-      <c r="A14" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -4088,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
@@ -4109,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD14" s="1">
         <v>0</v>
@@ -4133,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AL14" s="1">
         <v>35</v>
@@ -4148,58 +4118,55 @@
         <v>1</v>
       </c>
       <c r="AP14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AQ14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR14" s="1" t="s">
+      <c r="AX14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AS14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="AY14" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AZ14" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="BA14" s="1">
         <v>0.2</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="BE14" s="1">
         <v>0.5</v>
       </c>
-      <c r="BI14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="BJ14" s="2"/>
+      <c r="BI14" s="2"/>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:62">
+    <row r="15" ht="57" customHeight="1" spans="1:61">
       <c r="A15" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4256,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W15" s="1">
         <v>3.5</v>
@@ -4277,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD15" s="1">
         <v>0</v>
@@ -4301,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AL15" s="1">
         <v>35</v>
@@ -4316,61 +4283,60 @@
         <v>1</v>
       </c>
       <c r="AP15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AQ15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR15" s="1" t="s">
+      <c r="AX15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AS15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="AY15" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AZ15" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="BA15" s="1">
         <v>0.2</v>
       </c>
       <c r="BD15" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="BE15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BI15" s="7"/>
-      <c r="BJ15" s="7" t="s">
-        <v>164</v>
+      <c r="BI15" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:62">
+    <row r="16" ht="57" customHeight="1" spans="1:61">
       <c r="A16" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4427,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
@@ -4448,7 +4414,7 @@
         <v>0.5</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD16" s="1">
         <v>0</v>
@@ -4472,7 +4438,7 @@
         <v>2</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AL16" s="1">
         <v>35</v>
@@ -4487,58 +4453,55 @@
         <v>1</v>
       </c>
       <c r="AP16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AQ16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR16" s="1" t="s">
+      <c r="AX16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AS16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="AY16" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AZ16" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="BA16" s="1">
         <v>0.2</v>
       </c>
       <c r="BD16" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="BE16" s="1">
         <v>0.65</v>
       </c>
-      <c r="BI16" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="BJ16" s="2"/>
+      <c r="BI16" s="2"/>
     </row>
-    <row r="17" ht="57" customHeight="1" spans="1:62">
+    <row r="17" ht="57" customHeight="1" spans="1:61">
       <c r="A17" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4595,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W17" s="1">
         <v>4.5</v>
@@ -4616,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD17" s="1">
         <v>0</v>
@@ -4640,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AL17" s="1">
         <v>35</v>
@@ -4655,61 +4618,60 @@
         <v>1</v>
       </c>
       <c r="AP17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AQ17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR17" s="1" t="s">
+      <c r="AX17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AS17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX17" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="AY17" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AZ17" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="BA17" s="1">
         <v>0.2</v>
       </c>
       <c r="BD17" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="BE17" s="1">
         <v>0.65</v>
       </c>
-      <c r="BI17" s="2"/>
-      <c r="BJ17" s="2" t="s">
-        <v>172</v>
+      <c r="BI17" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="18" ht="57" customHeight="1" spans="1:62">
+    <row r="18" ht="57" customHeight="1" spans="1:61">
       <c r="A18" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -4766,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -4787,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD18" s="1">
         <v>0</v>
@@ -4811,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AL18" s="1">
         <v>25</v>
@@ -4826,49 +4788,46 @@
         <v>1</v>
       </c>
       <c r="AP18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ18" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AQ18" s="2" t="s">
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="AU18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY18" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AZ18" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="BA18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="BE18" s="1">
         <v>0.8</v>
       </c>
-      <c r="BI18" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="BJ18" s="2"/>
+      <c r="BI18" s="2"/>
     </row>
-    <row r="19" ht="57" customHeight="1" spans="1:62">
+    <row r="19" ht="57" customHeight="1" spans="1:61">
       <c r="A19" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -4925,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W19" s="1">
         <v>4</v>
@@ -4946,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD19" s="1">
         <v>0</v>
@@ -4970,7 +4929,7 @@
         <v>2</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AL19" s="1">
         <v>25</v>
@@ -4985,52 +4944,51 @@
         <v>1</v>
       </c>
       <c r="AP19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ19" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AQ19" s="2" t="s">
+      <c r="BA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="AU19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY19" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AZ19" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="BA19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD19" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="BE19" s="1">
         <v>0.8</v>
       </c>
-      <c r="BI19" s="2"/>
-      <c r="BJ19" s="2" t="s">
-        <v>173</v>
+      <c r="BI19" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="20" ht="57" customHeight="1" spans="1:62">
+    <row r="20" ht="57" customHeight="1" spans="1:61">
       <c r="A20" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D20" s="1">
         <v>40</v>
@@ -5087,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -5108,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD20" s="1">
         <v>0</v>
@@ -5132,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AL20" s="1">
         <v>20</v>
@@ -5147,13 +5105,13 @@
         <v>3</v>
       </c>
       <c r="AP20" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AQ20" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AS20" s="1" t="b">
         <v>1</v>
@@ -5162,49 +5120,46 @@
         <v>0.46</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AV20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AY20" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AZ20" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="BA20" s="1">
         <v>0.24</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BC20" s="1">
         <v>0.8</v>
       </c>
       <c r="BD20" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="BE20" s="1">
         <v>0.26</v>
       </c>
-      <c r="BI20" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="BJ20" s="2"/>
+      <c r="BI20" s="2"/>
     </row>
-    <row r="21" ht="57" customHeight="1" spans="1:62">
+    <row r="21" ht="57" customHeight="1" spans="1:61">
       <c r="A21" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D21" s="1">
         <v>40</v>
@@ -5261,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W21" s="1">
         <v>5</v>
@@ -5282,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD21" s="1">
         <v>0</v>
@@ -5306,7 +5261,7 @@
         <v>2</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AL21" s="1">
         <v>20</v>
@@ -5321,13 +5276,13 @@
         <v>3</v>
       </c>
       <c r="AP21" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AQ21" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AS21" s="1" t="b">
         <v>1</v>
@@ -5336,41 +5291,357 @@
         <v>0.46</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AV21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AW21" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AY21" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AZ21" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="BA21" s="1">
         <v>0.24</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BC21" s="1">
         <v>0.8</v>
       </c>
       <c r="BD21" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="BE21" s="1">
         <v>0.26</v>
       </c>
-      <c r="BI21" s="2"/>
-      <c r="BJ21" s="2" t="s">
-        <v>178</v>
+      <c r="BI21" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" ht="57" customHeight="1" spans="1:61">
+      <c r="A22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="1">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <v>240</v>
+      </c>
+      <c r="J22" s="1">
+        <v>120</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="L22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>300</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>300</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>13</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY22" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ22" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BI22" s="2"/>
+    </row>
+    <row r="23" ht="57" customHeight="1" spans="1:61">
+      <c r="A23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="1">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <v>240</v>
+      </c>
+      <c r="J23" s="1">
+        <v>120</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="L23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W23" s="1">
+        <v>4</v>
+      </c>
+      <c r="X23" s="1">
+        <v>300</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>300</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>13</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY23" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ23" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BE23" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BI23" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5389,7 +5660,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5406,7 +5677,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/WeaponBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29050" windowHeight="14130"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="226">
   <si>
     <t>Id</t>
   </si>
@@ -343,7 +343,7 @@
     <t>开火后武器口角度恢复速度倍数</t>
   </si>
   <si>
-    <t>开火特效</t>
+    <t>开火特效, 该特效脚本必须实现IEffect接口</t>
   </si>
   <si>
     <t>默认射出的子弹</t>
@@ -461,7 +461,7 @@
     <t>[2,4]</t>
   </si>
   <si>
-    <t>res://prefab/effect/weapon/ShotFire.tscn</t>
+    <t>res://prefab/effect/weapon/ShotFire0001.tscn</t>
   </si>
   <si>
     <t>shell0001</t>
@@ -653,7 +653,7 @@
     <t>[2,3]</t>
   </si>
   <si>
-    <t>res://prefab/effect/weapon/ShotFire2.tscn</t>
+    <t>res://prefab/effect/weapon/ShotFire0002.tscn</t>
   </si>
   <si>
     <t>1001</t>
@@ -702,6 +702,18 @@
   </si>
   <si>
     <t>weapon0010</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/weapon/ShotFire0004.tscn</t>
+  </si>
+  <si>
+    <t>shooting0012</t>
+  </si>
+  <si>
+    <t>reloadBegin0013</t>
+  </si>
+  <si>
+    <t>reloadFinish0005</t>
   </si>
   <si>
     <t>0010_ai</t>
@@ -1707,11 +1719,11 @@
   <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AL19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO22" sqref="AO22"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2360,7 +2372,7 @@
         <v>390</v>
       </c>
       <c r="K4" s="1">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1" t="b">
         <v>0</v>
@@ -2525,7 +2537,7 @@
         <v>390</v>
       </c>
       <c r="K5" s="1">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L5" s="1" t="b">
         <v>0</v>
@@ -2695,7 +2707,7 @@
         <v>133</v>
       </c>
       <c r="K6" s="1">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="L6" s="1" t="b">
         <v>1</v>
@@ -2704,10 +2716,10 @@
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="1">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="P6" s="1" t="b">
         <v>1</v>
@@ -2872,7 +2884,7 @@
         <v>133</v>
       </c>
       <c r="K7" s="1">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="L7" s="1" t="b">
         <v>1</v>
@@ -2881,10 +2893,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="1">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="P7" s="1" t="b">
         <v>1</v>
@@ -3054,7 +3066,7 @@
         <v>168</v>
       </c>
       <c r="K8" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L8" s="1" t="b">
         <v>0</v>
@@ -3219,7 +3231,7 @@
         <v>168</v>
       </c>
       <c r="K9" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L9" s="1" t="b">
         <v>0</v>
@@ -3255,7 +3267,7 @@
         <v>138</v>
       </c>
       <c r="W9" s="1">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
         <v>300</v>
@@ -3678,7 +3690,7 @@
         <v>70</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L12" s="1" t="b">
         <v>0</v>
@@ -3849,7 +3861,7 @@
         <v>70</v>
       </c>
       <c r="K13" s="1">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L13" s="1" t="b">
         <v>0</v>
@@ -4025,7 +4037,7 @@
         <v>580</v>
       </c>
       <c r="K14" s="1">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L14" s="1" t="b">
         <v>0</v>
@@ -4151,13 +4163,13 @@
         <v>190</v>
       </c>
       <c r="BA14" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1" t="s">
         <v>191</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BI14" s="2"/>
     </row>
@@ -4190,7 +4202,7 @@
         <v>580</v>
       </c>
       <c r="K15" s="1">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L15" s="1" t="b">
         <v>0</v>
@@ -4316,13 +4328,13 @@
         <v>190</v>
       </c>
       <c r="BA15" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1" t="s">
         <v>191</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BI15" s="7" t="s">
         <v>170</v>
@@ -5350,16 +5362,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I22" s="1">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="J22" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K22" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L22" s="1" t="b">
         <v>0</v>
@@ -5398,10 +5410,10 @@
         <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="Y22" s="1">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="Z22" s="1">
         <v>0</v>
@@ -5422,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AG22" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AH22" s="1">
         <v>20</v>
@@ -5443,7 +5455,7 @@
         <v>25</v>
       </c>
       <c r="AM22" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AN22" s="1">
         <v>0</v>
@@ -5452,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="AP22" s="2" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="AQ22" s="2" t="s">
         <v>193</v>
@@ -5470,25 +5482,25 @@
         <v>144</v>
       </c>
       <c r="AY22" s="2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="AZ22" s="5" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="BA22" s="1">
         <v>0</v>
       </c>
       <c r="BD22" s="1" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="BI22" s="2"/>
     </row>
     <row r="23" ht="57" customHeight="1" spans="1:61">
       <c r="A23" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>220</v>
@@ -5506,16 +5518,16 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I23" s="1">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="J23" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K23" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L23" s="1" t="b">
         <v>0</v>
@@ -5554,10 +5566,10 @@
         <v>4</v>
       </c>
       <c r="X23" s="1">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="Y23" s="1">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="Z23" s="1">
         <v>0</v>
@@ -5578,10 +5590,10 @@
         <v>0</v>
       </c>
       <c r="AF23" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AG23" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AH23" s="1">
         <v>20</v>
@@ -5599,7 +5611,7 @@
         <v>25</v>
       </c>
       <c r="AM23" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AN23" s="1">
         <v>0</v>
@@ -5608,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="AP23" s="2" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="AQ23" s="2" t="s">
         <v>193</v>
@@ -5626,22 +5638,22 @@
         <v>144</v>
       </c>
       <c r="AY23" s="2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="AZ23" s="5" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="BA23" s="1">
         <v>0</v>
       </c>
       <c r="BD23" s="1" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="BI23" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/WeaponBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="232">
   <si>
     <t>Id</t>
   </si>
@@ -717,6 +717,24 @@
   </si>
   <si>
     <t>0010_ai</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>weapon0013</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>0013_ai</t>
+  </si>
+  <si>
+    <t>[25]</t>
   </si>
 </sst>
 </file>
@@ -1716,14 +1734,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BL23"/>
+  <dimension ref="A1:BL25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AD22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2573,7 +2591,7 @@
         <v>149</v>
       </c>
       <c r="W5" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="X5" s="1">
         <v>480</v>
@@ -2920,7 +2938,7 @@
         <v>138</v>
       </c>
       <c r="W7" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X7" s="1">
         <v>120</v>
@@ -3897,7 +3915,7 @@
         <v>138</v>
       </c>
       <c r="W13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X13" s="1">
         <v>150</v>
@@ -4238,7 +4256,7 @@
         <v>153</v>
       </c>
       <c r="W15" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X15" s="1">
         <v>700</v>
@@ -4573,7 +4591,7 @@
         <v>143</v>
       </c>
       <c r="W17" s="1">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="X17" s="1">
         <v>200</v>
@@ -4899,7 +4917,7 @@
         <v>138</v>
       </c>
       <c r="W19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X19" s="1">
         <v>300</v>
@@ -5231,7 +5249,7 @@
         <v>138</v>
       </c>
       <c r="W21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X21" s="1">
         <v>60</v>
@@ -5654,6 +5672,341 @@
       </c>
       <c r="BI23" s="2" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="24" ht="57" customHeight="1" spans="1:61">
+      <c r="A24" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="1">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>50</v>
+      </c>
+      <c r="I24" s="1">
+        <v>500</v>
+      </c>
+      <c r="J24" s="1">
+        <v>350</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="L24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ24" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BD24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE24" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BI24" s="2"/>
+    </row>
+    <row r="25" ht="57" customHeight="1" spans="1:61">
+      <c r="A25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="1">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>50</v>
+      </c>
+      <c r="I25" s="1">
+        <v>500</v>
+      </c>
+      <c r="J25" s="1">
+        <v>350</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="L25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="W25" s="1">
+        <v>4</v>
+      </c>
+      <c r="X25" s="1">
+        <v>500</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>500</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY25" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ25" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BD25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE25" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BI25" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/WeaponBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="235">
   <si>
     <t>Id</t>
   </si>
@@ -729,6 +729,15 @@
   </si>
   <si>
     <t>[1,1]</t>
+  </si>
+  <si>
+    <t>shooting0013</t>
+  </si>
+  <si>
+    <t>reloadBegin0007</t>
+  </si>
+  <si>
+    <t>beLoaded0010</t>
   </si>
   <si>
     <t>0013_ai</t>
@@ -1737,11 +1746,11 @@
   <dimension ref="A1:BL25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AD22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5706,7 +5715,7 @@
         <v>350</v>
       </c>
       <c r="K24" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L24" s="1" t="b">
         <v>0</v>
@@ -5745,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="X24" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Y24" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Z24" s="1">
         <v>0</v>
@@ -5826,25 +5835,25 @@
         <v>144</v>
       </c>
       <c r="AY24" s="2" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="AZ24" s="5" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="BA24" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
       <c r="BI24" s="2"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:61">
       <c r="A25" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>227</v>
@@ -5871,7 +5880,7 @@
         <v>350</v>
       </c>
       <c r="K25" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L25" s="1" t="b">
         <v>0</v>
@@ -5904,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="W25" s="1">
         <v>4</v>
@@ -5991,19 +6000,19 @@
         <v>144</v>
       </c>
       <c r="AY25" s="2" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="AZ25" s="5" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="BA25" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
       <c r="BI25" s="2" t="s">
         <v>185</v>

--- a/DungeonShooting_Godot/excel/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/WeaponBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="231">
   <si>
     <t>Id</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>ThrowShellDelayTime</t>
-  </si>
-  <si>
-    <t>ThrowCollisionSize</t>
   </si>
   <si>
     <t>CanMeleeAttack</t>
@@ -358,9 +355,6 @@
     <t>投抛弹壳的延时时间</t>
   </si>
   <si>
-    <t>投抛状态下物体碰撞器大小</t>
-  </si>
-  <si>
     <t>是否可以触发近战攻击</t>
   </si>
   <si>
@@ -434,9 +428,6 @@
     <t>$BulletBase</t>
   </si>
   <si>
-    <t>vector2</t>
-  </si>
-  <si>
     <t>$Sound</t>
   </si>
   <si>
@@ -465,9 +456,6 @@
   </si>
   <si>
     <t>shell0001</t>
-  </si>
-  <si>
-    <t>{"X":20,"Y":15}</t>
   </si>
   <si>
     <t>[10]</t>
@@ -1743,14 +1731,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BL25"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="AU1" sqref="AU$1:AU$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1795,21 +1783,21 @@
     <col min="41" max="42" width="27.6454545454545" style="1" customWidth="1"/>
     <col min="43" max="43" width="27.7818181818182" style="2" customWidth="1"/>
     <col min="44" max="46" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="47" max="50" width="24.0727272727273" style="1" customWidth="1"/>
-    <col min="51" max="51" width="21.1090909090909" style="1" customWidth="1"/>
-    <col min="52" max="52" width="22.1" style="1" customWidth="1"/>
-    <col min="53" max="53" width="29.7545454545455" style="1" customWidth="1"/>
-    <col min="54" max="54" width="20.1181818181818" style="1" customWidth="1"/>
-    <col min="55" max="55" width="25.2272727272727" style="1" customWidth="1"/>
-    <col min="56" max="56" width="23.7" style="1" customWidth="1"/>
-    <col min="57" max="57" width="37.9272727272727" style="1" customWidth="1"/>
-    <col min="58" max="58" width="22.5909090909091" style="1" customWidth="1"/>
-    <col min="59" max="59" width="30.4636363636364" style="1" customWidth="1"/>
-    <col min="60" max="60" width="31.8545454545455" style="1" customWidth="1"/>
-    <col min="61" max="61" width="32.4636363636364" style="3" customWidth="1"/>
+    <col min="47" max="49" width="24.0727272727273" style="1" customWidth="1"/>
+    <col min="50" max="50" width="21.1090909090909" style="1" customWidth="1"/>
+    <col min="51" max="51" width="22.1" style="1" customWidth="1"/>
+    <col min="52" max="52" width="29.7545454545455" style="1" customWidth="1"/>
+    <col min="53" max="53" width="20.1181818181818" style="1" customWidth="1"/>
+    <col min="54" max="54" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="55" max="55" width="23.7" style="1" customWidth="1"/>
+    <col min="56" max="56" width="37.9272727272727" style="1" customWidth="1"/>
+    <col min="57" max="57" width="22.5909090909091" style="1" customWidth="1"/>
+    <col min="58" max="58" width="30.4636363636364" style="1" customWidth="1"/>
+    <col min="59" max="59" width="31.8545454545455" style="1" customWidth="1"/>
+    <col min="60" max="60" width="32.4636363636364" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:61">
+    <row r="1" ht="31" customHeight="1" spans="1:60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1987,395 +1975,386 @@
       <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="3" t="s">
+    </row>
+    <row r="2" ht="114" customHeight="1" spans="1:63">
+      <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" ht="114" customHeight="1" spans="1:64">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BH2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
       <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:61">
+    <row r="3" ht="27" customHeight="1" spans="1:60">
       <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU3" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="AV3" s="1" t="s">
         <v>126</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AY3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" ht="57" customHeight="1" spans="1:60">
+      <c r="A4" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AZ3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="4" ht="57" customHeight="1" spans="1:61">
-      <c r="A4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2432,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -2453,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD4" s="1">
         <v>0</v>
@@ -2477,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AL4" s="1">
         <v>35</v>
@@ -2492,55 +2471,52 @@
         <v>1</v>
       </c>
       <c r="AP4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AX4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AS4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AV4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AZ4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BC4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="BD4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BH4" s="7"/>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:60">
+      <c r="A5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AY4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BI4" s="7"/>
-    </row>
-    <row r="5" ht="57" customHeight="1" spans="1:61">
-      <c r="A5" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2597,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="W5" s="1">
         <v>2.5</v>
@@ -2618,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD5" s="1">
         <v>0</v>
@@ -2642,7 +2618,7 @@
         <v>2</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AL5" s="1">
         <v>35</v>
@@ -2657,60 +2633,57 @@
         <v>1</v>
       </c>
       <c r="AP5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AX5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AS5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AV5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AZ5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BC5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AX5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="BD5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BH5" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" ht="57" customHeight="1" spans="1:60">
+      <c r="A6" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="BA5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BD5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BE5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BI5" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" ht="57" customHeight="1" spans="1:61">
-      <c r="A6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2767,7 +2740,7 @@
         <v>0.6</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W6" s="1">
         <v>0</v>
@@ -2788,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AD6" s="1">
         <v>0</v>
@@ -2812,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL6" s="1">
         <v>35</v>
@@ -2827,13 +2800,13 @@
         <v>1</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AS6" s="1" t="b">
         <v>0</v>
@@ -2841,53 +2814,50 @@
       <c r="AT6" s="1">
         <v>0.2</v>
       </c>
-      <c r="AU6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV6" s="1" t="b">
-        <v>1</v>
+      <c r="AU6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AZ6" s="1" t="s">
+      <c r="BF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="7"/>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:60">
+      <c r="A7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="BA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="7"/>
-    </row>
-    <row r="7" ht="57" customHeight="1" spans="1:61">
-      <c r="A7" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2944,7 +2914,7 @@
         <v>0.6</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W7" s="1">
         <v>3</v>
@@ -2965,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AD7" s="1">
         <v>0</v>
@@ -2989,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL7" s="1">
         <v>35</v>
@@ -3004,13 +2974,13 @@
         <v>1</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AS7" s="1" t="b">
         <v>0</v>
@@ -3018,58 +2988,55 @@
       <c r="AT7" s="1">
         <v>0.2</v>
       </c>
-      <c r="AU7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV7" s="1" t="b">
-        <v>1</v>
+      <c r="AU7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AZ7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="1" t="s">
+      <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" ht="57" customHeight="1" spans="1:60">
+      <c r="A8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="BC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BE7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BF7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" ht="57" customHeight="1" spans="1:61">
-      <c r="A8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3126,7 +3093,7 @@
         <v>0.05</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -3147,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD8" s="1">
         <v>0</v>
@@ -3171,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AL8" s="1">
         <v>35</v>
@@ -3186,55 +3153,52 @@
         <v>1</v>
       </c>
       <c r="AP8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BE8" s="1">
+      <c r="AX8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD8" s="1">
         <v>0.43</v>
       </c>
-      <c r="BI8" s="7"/>
+      <c r="BH8" s="7"/>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:61">
+    <row r="9" ht="57" customHeight="1" spans="1:60">
       <c r="A9" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3291,7 +3255,7 @@
         <v>0.05</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W9" s="1">
         <v>1</v>
@@ -3312,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD9" s="1">
         <v>0</v>
@@ -3336,7 +3300,7 @@
         <v>4</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AL9" s="1">
         <v>35</v>
@@ -3351,60 +3315,57 @@
         <v>1</v>
       </c>
       <c r="AP9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY9" s="2" t="s">
+      <c r="AX9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BH9" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" ht="57" customHeight="1" spans="1:60">
+      <c r="A10" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AZ9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BI9" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" ht="57" customHeight="1" spans="1:61">
-      <c r="A10" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3461,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W10" s="1">
         <v>0</v>
@@ -3482,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD10" s="1">
         <v>0</v>
@@ -3506,7 +3467,7 @@
         <v>7</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AL10" s="1">
         <v>24</v>
@@ -3522,31 +3483,28 @@
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
       </c>
-      <c r="AU10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV10" s="1" t="b">
-        <v>1</v>
+      <c r="AU10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI10" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="BH10" s="7"/>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:61">
+    <row r="11" ht="57" customHeight="1" spans="1:60">
       <c r="A11" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3603,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W11" s="1">
         <v>3</v>
@@ -3624,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD11" s="1">
         <v>0</v>
@@ -3648,7 +3606,7 @@
         <v>7</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AL11" s="1">
         <v>24</v>
@@ -3664,36 +3622,33 @@
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BH11" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" ht="57" customHeight="1" spans="1:60">
+      <c r="A12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI11" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" ht="57" customHeight="1" spans="1:61">
-      <c r="A12" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3750,7 +3705,7 @@
         <v>0.9</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
@@ -3771,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD12" s="1">
         <v>0</v>
@@ -3795,7 +3750,7 @@
         <v>5</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AL12" s="1">
         <v>20</v>
@@ -3810,13 +3765,13 @@
         <v>1</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AS12" s="1" t="b">
         <v>0</v>
@@ -3824,47 +3779,44 @@
       <c r="AT12" s="1">
         <v>0.2</v>
       </c>
-      <c r="AU12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV12" s="1" t="b">
-        <v>1</v>
+      <c r="AU12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AZ12" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="7"/>
+        <v>177</v>
+      </c>
+      <c r="AY12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="7"/>
     </row>
-    <row r="13" ht="57" customHeight="1" spans="1:61">
+    <row r="13" ht="57" customHeight="1" spans="1:60">
       <c r="A13" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3921,7 +3873,7 @@
         <v>0.9</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W13" s="1">
         <v>4</v>
@@ -3942,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD13" s="1">
         <v>0</v>
@@ -3966,7 +3918,7 @@
         <v>5</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AL13" s="1">
         <v>20</v>
@@ -3981,13 +3933,13 @@
         <v>1</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AS13" s="1" t="b">
         <v>0</v>
@@ -3995,52 +3947,49 @@
       <c r="AT13" s="1">
         <v>0.2</v>
       </c>
-      <c r="AU13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV13" s="1" t="b">
-        <v>1</v>
+      <c r="AU13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" ht="57" customHeight="1" spans="1:60">
+      <c r="A14" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AZ13" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="BE13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" ht="57" customHeight="1" spans="1:61">
-      <c r="A14" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -4097,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
@@ -4118,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD14" s="1">
         <v>0</v>
@@ -4142,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AL14" s="1">
         <v>35</v>
@@ -4157,55 +4106,52 @@
         <v>1</v>
       </c>
       <c r="AP14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ14" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BE14" s="1">
+      <c r="AX14" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD14" s="1">
         <v>0.6</v>
       </c>
-      <c r="BI14" s="2"/>
+      <c r="BH14" s="2"/>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:61">
+    <row r="15" ht="57" customHeight="1" spans="1:60">
       <c r="A15" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4262,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="W15" s="1">
         <v>3</v>
@@ -4283,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD15" s="1">
         <v>0</v>
@@ -4307,7 +4253,7 @@
         <v>2</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AL15" s="1">
         <v>35</v>
@@ -4322,60 +4268,57 @@
         <v>1</v>
       </c>
       <c r="AP15" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW15" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY15" s="2" t="s">
+      <c r="AX15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BH15" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" ht="57" customHeight="1" spans="1:60">
+      <c r="A16" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AZ15" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BA15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="BE15" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BI15" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" ht="57" customHeight="1" spans="1:61">
-      <c r="A16" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4432,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
@@ -4453,7 +4396,7 @@
         <v>0.5</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD16" s="1">
         <v>0</v>
@@ -4477,7 +4420,7 @@
         <v>2</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AL16" s="1">
         <v>35</v>
@@ -4492,55 +4435,52 @@
         <v>1</v>
       </c>
       <c r="AP16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ16" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY16" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AZ16" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="BA16" s="1">
+      <c r="AX16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY16" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ16" s="1">
         <v>0.2</v>
       </c>
-      <c r="BD16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE16" s="1">
+      <c r="BC16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD16" s="1">
         <v>0.65</v>
       </c>
-      <c r="BI16" s="2"/>
+      <c r="BH16" s="2"/>
     </row>
-    <row r="17" ht="57" customHeight="1" spans="1:61">
+    <row r="17" ht="57" customHeight="1" spans="1:60">
       <c r="A17" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4597,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="W17" s="1">
         <v>4</v>
@@ -4618,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD17" s="1">
         <v>0</v>
@@ -4642,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AL17" s="1">
         <v>35</v>
@@ -4657,60 +4597,57 @@
         <v>1</v>
       </c>
       <c r="AP17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW17" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ17" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY17" s="2" t="s">
+      <c r="AX17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY17" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BH17" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" ht="57" customHeight="1" spans="1:60">
+      <c r="A18" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="AZ17" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="BA17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BD17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="BE17" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="BI17" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" ht="57" customHeight="1" spans="1:61">
-      <c r="A18" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -4767,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -4788,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD18" s="1">
         <v>0</v>
@@ -4812,7 +4749,7 @@
         <v>2</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AL18" s="1">
         <v>25</v>
@@ -4827,46 +4764,43 @@
         <v>1</v>
       </c>
       <c r="AP18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY18" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AQ18" s="2" t="s">
+      <c r="BD18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BH18" s="2"/>
+    </row>
+    <row r="19" ht="57" customHeight="1" spans="1:60">
+      <c r="A19" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AU18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AZ18" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="BA18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BE18" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="BI18" s="2"/>
-    </row>
-    <row r="19" ht="57" customHeight="1" spans="1:61">
-      <c r="A19" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="B19" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -4923,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W19" s="1">
         <v>3</v>
@@ -4944,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD19" s="1">
         <v>0</v>
@@ -4968,7 +4902,7 @@
         <v>2</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AL19" s="1">
         <v>25</v>
@@ -4983,51 +4917,48 @@
         <v>1</v>
       </c>
       <c r="AP19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY19" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AQ19" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY19" s="2" t="s">
+      <c r="BD19" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BH19" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" ht="57" customHeight="1" spans="1:60">
+      <c r="A20" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AZ19" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="BA19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="BE19" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="BI19" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" ht="57" customHeight="1" spans="1:61">
-      <c r="A20" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D20" s="1">
         <v>40</v>
@@ -5084,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -5105,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD20" s="1">
         <v>0</v>
@@ -5129,7 +5060,7 @@
         <v>2</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AL20" s="1">
         <v>20</v>
@@ -5144,13 +5075,13 @@
         <v>3</v>
       </c>
       <c r="AP20" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AQ20" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AS20" s="1" t="b">
         <v>1</v>
@@ -5158,47 +5089,44 @@
       <c r="AT20" s="1">
         <v>0.46</v>
       </c>
-      <c r="AU20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV20" s="1" t="b">
-        <v>1</v>
+      <c r="AU20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY20" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="BH20" s="2"/>
+    </row>
+    <row r="21" ht="57" customHeight="1" spans="1:60">
+      <c r="A21" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AZ20" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA20" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="BB20" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BC20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="BD20" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BE20" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="BI20" s="2"/>
-    </row>
-    <row r="21" ht="57" customHeight="1" spans="1:61">
-      <c r="A21" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D21" s="1">
         <v>40</v>
@@ -5255,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W21" s="1">
         <v>4</v>
@@ -5276,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD21" s="1">
         <v>0</v>
@@ -5300,7 +5228,7 @@
         <v>2</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AL21" s="1">
         <v>20</v>
@@ -5315,13 +5243,13 @@
         <v>3</v>
       </c>
       <c r="AP21" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AQ21" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AS21" s="1" t="b">
         <v>1</v>
@@ -5329,52 +5257,49 @@
       <c r="AT21" s="1">
         <v>0.46</v>
       </c>
-      <c r="AU21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV21" s="1" t="b">
-        <v>1</v>
+      <c r="AU21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AW21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY21" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX21" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY21" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="BH21" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" ht="57" customHeight="1" spans="1:60">
+      <c r="A22" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="BA21" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="BB21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BC21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="BD21" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BE21" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="BI21" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" ht="57" customHeight="1" spans="1:61">
-      <c r="A22" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D22" s="1">
         <v>40</v>
@@ -5431,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -5452,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD22" s="1">
         <v>0</v>
@@ -5476,7 +5401,7 @@
         <v>2</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AL22" s="1">
         <v>25</v>
@@ -5491,46 +5416,43 @@
         <v>1</v>
       </c>
       <c r="AP22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY22" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BH22" s="2"/>
+    </row>
+    <row r="23" ht="57" customHeight="1" spans="1:60">
+      <c r="A23" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AQ22" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AU22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY22" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AZ22" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BE22" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BI22" s="2"/>
-    </row>
-    <row r="23" ht="57" customHeight="1" spans="1:61">
-      <c r="A23" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="B23" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D23" s="1">
         <v>40</v>
@@ -5587,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W23" s="1">
         <v>4</v>
@@ -5608,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD23" s="1">
         <v>0</v>
@@ -5632,7 +5554,7 @@
         <v>2</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AL23" s="1">
         <v>25</v>
@@ -5647,51 +5569,48 @@
         <v>1</v>
       </c>
       <c r="AP23" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AQ23" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AU23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV23" s="1" t="b">
-        <v>1</v>
+        <v>189</v>
+      </c>
+      <c r="AU23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX23" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY23" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BH23" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" ht="57" customHeight="1" spans="1:60">
+      <c r="A24" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AZ23" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BA23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="BE23" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BI23" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" ht="57" customHeight="1" spans="1:61">
-      <c r="A24" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D24" s="1">
         <v>40</v>
@@ -5748,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W24" s="1">
         <v>0</v>
@@ -5769,7 +5688,7 @@
         <v>0.5</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD24" s="1">
         <v>0</v>
@@ -5793,7 +5712,7 @@
         <v>2</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AL24" s="1">
         <v>35</v>
@@ -5808,55 +5727,52 @@
         <v>1</v>
       </c>
       <c r="AP24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY24" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="AZ24" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="BA24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD24" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE24" s="1">
+      <c r="AX24" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AY24" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BD24" s="1">
         <v>0.35</v>
       </c>
-      <c r="BI24" s="2"/>
+      <c r="BH24" s="2"/>
     </row>
-    <row r="25" ht="57" customHeight="1" spans="1:61">
+    <row r="25" ht="57" customHeight="1" spans="1:60">
       <c r="A25" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D25" s="1">
         <v>40</v>
@@ -5913,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="W25" s="1">
         <v>4</v>
@@ -5934,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD25" s="1">
         <v>0</v>
@@ -5958,7 +5874,7 @@
         <v>2</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AL25" s="1">
         <v>35</v>
@@ -5973,49 +5889,46 @@
         <v>1</v>
       </c>
       <c r="AP25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW25" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ25" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY25" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="AZ25" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="BA25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE25" s="1">
+      <c r="AX25" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AY25" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BD25" s="1">
         <v>0.35</v>
       </c>
-      <c r="BI25" s="2" t="s">
-        <v>185</v>
+      <c r="BH25" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/WeaponBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="232">
   <si>
     <t>Id</t>
   </si>
@@ -687,6 +687,9 @@
   </si>
   <si>
     <t>0010</t>
+  </si>
+  <si>
+    <t>M1型热能狙击枪</t>
   </si>
   <si>
     <t>weapon0010</t>
@@ -1734,11 +1737,11 @@
   <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AJ22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AU1" sqref="AU$1:AU$1048576"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5299,7 +5302,7 @@
         <v>216</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D22" s="1">
         <v>40</v>
@@ -5416,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="AP22" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ22" s="2" t="s">
         <v>189</v>
@@ -5431,16 +5434,16 @@
         <v>140</v>
       </c>
       <c r="AX22" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AY22" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AZ22" s="1">
         <v>0</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BD22" s="1">
         <v>0.6</v>
@@ -5449,7 +5452,7 @@
     </row>
     <row r="23" ht="57" customHeight="1" spans="1:60">
       <c r="A23" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>216</v>
@@ -5569,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AP23" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ23" s="2" t="s">
         <v>189</v>
@@ -5584,16 +5587,16 @@
         <v>140</v>
       </c>
       <c r="AX23" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AY23" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AZ23" s="1">
         <v>0</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BD23" s="1">
         <v>0.6</v>
@@ -5604,13 +5607,13 @@
     </row>
     <row r="24" ht="57" customHeight="1" spans="1:60">
       <c r="A24" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D24" s="1">
         <v>40</v>
@@ -5712,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL24" s="1">
         <v>35</v>
@@ -5751,16 +5754,16 @@
         <v>140</v>
       </c>
       <c r="AX24" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AY24" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AZ24" s="1">
         <v>0</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BD24" s="1">
         <v>0.35</v>
@@ -5769,10 +5772,10 @@
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:60">
       <c r="A25" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D25" s="1">
         <v>40</v>
@@ -5829,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W25" s="1">
         <v>4</v>
@@ -5874,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL25" s="1">
         <v>35</v>
@@ -5913,16 +5916,16 @@
         <v>140</v>
       </c>
       <c r="AX25" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AY25" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AZ25" s="1">
         <v>0</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BD25" s="1">
         <v>0.35</v>

--- a/DungeonShooting_Godot/excel/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/WeaponBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="238">
   <si>
     <t>Id</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>ReloadThrowShell</t>
+  </si>
+  <si>
+    <t>ThrowShellCount</t>
   </si>
   <si>
     <t>ThrowShellDelayTime</t>
@@ -352,6 +355,9 @@
     <t>是否在换弹时才抛弹壳</t>
   </si>
   <si>
+    <t>抛壳数量</t>
+  </si>
+  <si>
     <t>投抛弹壳的延时时间</t>
   </si>
   <si>
@@ -735,6 +741,18 @@
   </si>
   <si>
     <t>[25]</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>左轮</t>
+  </si>
+  <si>
+    <t>weapon0014</t>
+  </si>
+  <si>
+    <t>0014_ai</t>
   </si>
 </sst>
 </file>
@@ -1734,14 +1752,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BL27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AJ22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AP22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="AT26" sqref="AT26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1785,22 +1803,22 @@
     <col min="40" max="40" width="23.7" style="1" customWidth="1"/>
     <col min="41" max="42" width="27.6454545454545" style="1" customWidth="1"/>
     <col min="43" max="43" width="27.7818181818182" style="2" customWidth="1"/>
-    <col min="44" max="46" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="47" max="49" width="24.0727272727273" style="1" customWidth="1"/>
-    <col min="50" max="50" width="21.1090909090909" style="1" customWidth="1"/>
-    <col min="51" max="51" width="22.1" style="1" customWidth="1"/>
-    <col min="52" max="52" width="29.7545454545455" style="1" customWidth="1"/>
-    <col min="53" max="53" width="20.1181818181818" style="1" customWidth="1"/>
-    <col min="54" max="54" width="25.2272727272727" style="1" customWidth="1"/>
-    <col min="55" max="55" width="23.7" style="1" customWidth="1"/>
-    <col min="56" max="56" width="37.9272727272727" style="1" customWidth="1"/>
-    <col min="57" max="57" width="22.5909090909091" style="1" customWidth="1"/>
-    <col min="58" max="58" width="30.4636363636364" style="1" customWidth="1"/>
-    <col min="59" max="59" width="31.8545454545455" style="1" customWidth="1"/>
-    <col min="60" max="60" width="32.4636363636364" style="3" customWidth="1"/>
+    <col min="44" max="47" width="27.7818181818182" style="1" customWidth="1"/>
+    <col min="48" max="50" width="24.0727272727273" style="1" customWidth="1"/>
+    <col min="51" max="51" width="21.1090909090909" style="1" customWidth="1"/>
+    <col min="52" max="52" width="22.1" style="1" customWidth="1"/>
+    <col min="53" max="53" width="29.7545454545455" style="1" customWidth="1"/>
+    <col min="54" max="54" width="20.1181818181818" style="1" customWidth="1"/>
+    <col min="55" max="55" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="56" max="56" width="23.7" style="1" customWidth="1"/>
+    <col min="57" max="57" width="37.9272727272727" style="1" customWidth="1"/>
+    <col min="58" max="58" width="22.5909090909091" style="1" customWidth="1"/>
+    <col min="59" max="59" width="30.4636363636364" style="1" customWidth="1"/>
+    <col min="60" max="60" width="31.8545454545455" style="1" customWidth="1"/>
+    <col min="61" max="61" width="32.4636363636364" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:60">
+    <row r="1" ht="31" customHeight="1" spans="1:61">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1978,333 +1996,339 @@
       <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="BI1" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:63">
+    <row r="2" ht="114" customHeight="1" spans="1:64">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BI2" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="BJ2" s="6"/>
       <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:60">
+    <row r="3" ht="27" customHeight="1" spans="1:61">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="AQ3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>124</v>
@@ -2313,51 +2337,54 @@
         <v>126</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:60">
+    <row r="4" ht="57" customHeight="1" spans="1:61">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2414,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -2435,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD4" s="1">
         <v>0</v>
@@ -2459,7 +2486,7 @@
         <v>2</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AL4" s="1">
         <v>35</v>
@@ -2474,52 +2501,52 @@
         <v>1</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>139</v>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AZ4" s="1">
+      <c r="AY4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA4" s="1">
         <v>0.2</v>
       </c>
-      <c r="BC4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BD4" s="1">
+      <c r="BD4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE4" s="1">
         <v>0.4</v>
       </c>
-      <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:60">
+    <row r="5" ht="57" customHeight="1" spans="1:61">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2576,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="W5" s="1">
         <v>2.5</v>
@@ -2597,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD5" s="1">
         <v>0</v>
@@ -2621,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AL5" s="1">
         <v>35</v>
@@ -2636,57 +2663,57 @@
         <v>1</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>139</v>
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="AY5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA5" s="1">
         <v>0.2</v>
       </c>
-      <c r="BC5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BD5" s="1">
+      <c r="BD5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BH5" s="7" t="s">
-        <v>132</v>
+      <c r="BI5" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:60">
+    <row r="6" ht="57" customHeight="1" spans="1:61">
       <c r="A6" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2743,7 +2770,7 @@
         <v>0.6</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W6" s="1">
         <v>0</v>
@@ -2764,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AD6" s="1">
         <v>0</v>
@@ -2788,7 +2815,7 @@
         <v>4</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AL6" s="1">
         <v>35</v>
@@ -2803,64 +2830,64 @@
         <v>1</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AU6" s="1">
         <v>0.2</v>
       </c>
-      <c r="AU6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>139</v>
+      <c r="AV6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1" t="s">
+      <c r="AZ6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BD6" s="1">
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BE6" s="1">
         <v>0.3</v>
       </c>
-      <c r="BE6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="7"/>
+      <c r="BF6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="7"/>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:60">
+    <row r="7" ht="57" customHeight="1" spans="1:61">
       <c r="A7" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2917,7 +2944,7 @@
         <v>0.6</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W7" s="1">
         <v>3</v>
@@ -2938,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AD7" s="1">
         <v>0</v>
@@ -2962,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AL7" s="1">
         <v>35</v>
@@ -2977,69 +3004,69 @@
         <v>1</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AU7" s="1">
         <v>0.2</v>
       </c>
-      <c r="AU7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>139</v>
+      <c r="AV7" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="1" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BD7" s="1">
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BE7" s="1">
         <v>0.3</v>
       </c>
-      <c r="BE7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="7" t="s">
-        <v>146</v>
+      <c r="BF7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:60">
+    <row r="8" ht="57" customHeight="1" spans="1:61">
       <c r="A8" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3096,7 +3123,7 @@
         <v>0.05</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -3117,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD8" s="1">
         <v>0</v>
@@ -3141,7 +3168,7 @@
         <v>4</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL8" s="1">
         <v>35</v>
@@ -3156,52 +3183,52 @@
         <v>1</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>139</v>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY8" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="BD8" s="1">
+      <c r="AZ8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BE8" s="1">
         <v>0.43</v>
       </c>
-      <c r="BH8" s="7"/>
+      <c r="BI8" s="7"/>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:60">
+    <row r="9" ht="57" customHeight="1" spans="1:61">
       <c r="A9" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3258,7 +3285,7 @@
         <v>0.05</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W9" s="1">
         <v>1</v>
@@ -3279,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD9" s="1">
         <v>0</v>
@@ -3303,7 +3330,7 @@
         <v>4</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL9" s="1">
         <v>35</v>
@@ -3318,57 +3345,57 @@
         <v>1</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>139</v>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="BD9" s="1">
+      <c r="AZ9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BE9" s="1">
         <v>0.43</v>
       </c>
-      <c r="BH9" s="7" t="s">
-        <v>158</v>
+      <c r="BI9" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:60">
+    <row r="10" ht="57" customHeight="1" spans="1:61">
       <c r="A10" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3425,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W10" s="1">
         <v>0</v>
@@ -3446,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD10" s="1">
         <v>0</v>
@@ -3470,7 +3497,7 @@
         <v>7</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AL10" s="1">
         <v>24</v>
@@ -3486,28 +3513,28 @@
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>139</v>
+        <v>172</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BH10" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI10" s="7"/>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:60">
+    <row r="11" ht="57" customHeight="1" spans="1:61">
       <c r="A11" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3564,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W11" s="1">
         <v>3</v>
@@ -3585,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD11" s="1">
         <v>0</v>
@@ -3609,7 +3636,7 @@
         <v>7</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AL11" s="1">
         <v>24</v>
@@ -3625,33 +3652,33 @@
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>139</v>
+        <v>172</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BH11" s="7" t="s">
-        <v>166</v>
+        <v>141</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI11" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:60">
+    <row r="12" ht="57" customHeight="1" spans="1:61">
       <c r="A12" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3708,7 +3735,7 @@
         <v>0.9</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
@@ -3729,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD12" s="1">
         <v>0</v>
@@ -3753,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AL12" s="1">
         <v>20</v>
@@ -3768,58 +3795,58 @@
         <v>1</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AS12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT12" s="1">
+      <c r="AU12" s="1">
         <v>0.2</v>
       </c>
-      <c r="AU12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>139</v>
+      <c r="AV12" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY12" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY12" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BD12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="7"/>
+      <c r="AZ12" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="7"/>
     </row>
-    <row r="13" ht="57" customHeight="1" spans="1:60">
+    <row r="13" ht="57" customHeight="1" spans="1:61">
       <c r="A13" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3876,7 +3903,7 @@
         <v>0.9</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W13" s="1">
         <v>4</v>
@@ -3897,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD13" s="1">
         <v>0</v>
@@ -3921,7 +3948,7 @@
         <v>5</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AL13" s="1">
         <v>20</v>
@@ -3936,63 +3963,63 @@
         <v>1</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AS13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT13" s="1">
+      <c r="AU13" s="1">
         <v>0.2</v>
       </c>
-      <c r="AU13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="1" t="s">
-        <v>139</v>
+      <c r="AV13" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY13" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="AZ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BD13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BF13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="7" t="s">
-        <v>172</v>
+      <c r="AZ13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:60">
+    <row r="14" ht="57" customHeight="1" spans="1:61">
       <c r="A14" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -4049,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
@@ -4070,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD14" s="1">
         <v>0</v>
@@ -4094,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AL14" s="1">
         <v>35</v>
@@ -4109,52 +4136,52 @@
         <v>1</v>
       </c>
       <c r="AP14" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="1" t="s">
-        <v>139</v>
+      <c r="AU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX14" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AY14" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY14" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BD14" s="1">
+      <c r="AZ14" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE14" s="1">
         <v>0.6</v>
       </c>
-      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:60">
+    <row r="15" ht="57" customHeight="1" spans="1:61">
       <c r="A15" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4211,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="W15" s="1">
         <v>3</v>
@@ -4232,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD15" s="1">
         <v>0</v>
@@ -4256,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AL15" s="1">
         <v>35</v>
@@ -4271,57 +4298,57 @@
         <v>1</v>
       </c>
       <c r="AP15" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV15" s="1" t="s">
-        <v>139</v>
+      <c r="AU15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX15" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AY15" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY15" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BD15" s="1">
+      <c r="AZ15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE15" s="1">
         <v>0.6</v>
       </c>
-      <c r="BH15" s="7" t="s">
-        <v>166</v>
+      <c r="BI15" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:60">
+    <row r="16" ht="57" customHeight="1" spans="1:61">
       <c r="A16" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4378,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
@@ -4399,7 +4426,7 @@
         <v>0.5</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD16" s="1">
         <v>0</v>
@@ -4423,7 +4450,7 @@
         <v>2</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AL16" s="1">
         <v>35</v>
@@ -4438,52 +4465,52 @@
         <v>1</v>
       </c>
       <c r="AP16" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="1" t="s">
-        <v>139</v>
+      <c r="AU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ16" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BI16" s="2"/>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:61">
+      <c r="A17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="AY16" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BC16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD16" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="BH16" s="2"/>
-    </row>
-    <row r="17" ht="57" customHeight="1" spans="1:60">
-      <c r="A17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4540,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W17" s="1">
         <v>4</v>
@@ -4561,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD17" s="1">
         <v>0</v>
@@ -4585,7 +4612,7 @@
         <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AL17" s="1">
         <v>35</v>
@@ -4600,57 +4627,57 @@
         <v>1</v>
       </c>
       <c r="AP17" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="1" t="s">
-        <v>139</v>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX17" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AY17" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ17" s="1">
+        <v>141</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ17" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BC17" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD17" s="1">
+      <c r="BD17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE17" s="1">
         <v>0.65</v>
       </c>
-      <c r="BH17" s="2" t="s">
-        <v>181</v>
+      <c r="BI17" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="18" ht="57" customHeight="1" spans="1:60">
+    <row r="18" ht="57" customHeight="1" spans="1:61">
       <c r="A18" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -4707,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -4728,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD18" s="1">
         <v>0</v>
@@ -4752,7 +4779,7 @@
         <v>2</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL18" s="1">
         <v>25</v>
@@ -4767,43 +4794,43 @@
         <v>1</v>
       </c>
       <c r="AP18" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AU18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="1" t="s">
-        <v>139</v>
+        <v>203</v>
+      </c>
+      <c r="AV18" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX18" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AY18" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AZ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY18" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BD18" s="1">
+      <c r="AZ18" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BE18" s="1">
         <v>0.8</v>
       </c>
-      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
     </row>
-    <row r="19" ht="57" customHeight="1" spans="1:60">
+    <row r="19" ht="57" customHeight="1" spans="1:61">
       <c r="A19" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -4860,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W19" s="1">
         <v>3</v>
@@ -4881,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD19" s="1">
         <v>0</v>
@@ -4905,7 +4932,7 @@
         <v>2</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL19" s="1">
         <v>25</v>
@@ -4920,48 +4947,48 @@
         <v>1</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AU19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV19" s="1" t="s">
-        <v>139</v>
+        <v>203</v>
+      </c>
+      <c r="AV19" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX19" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AY19" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AZ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY19" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BD19" s="1">
+      <c r="AZ19" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BE19" s="1">
         <v>0.8</v>
       </c>
-      <c r="BH19" s="2" t="s">
-        <v>189</v>
+      <c r="BI19" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="20" ht="57" customHeight="1" spans="1:60">
+    <row r="20" ht="57" customHeight="1" spans="1:61">
       <c r="A20" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D20" s="1">
         <v>40</v>
@@ -5018,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -5039,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD20" s="1">
         <v>0</v>
@@ -5063,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL20" s="1">
         <v>20</v>
@@ -5078,58 +5105,58 @@
         <v>3</v>
       </c>
       <c r="AP20" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ20" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AR20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AV20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ20" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BD20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="BI20" s="2"/>
+    </row>
+    <row r="21" ht="57" customHeight="1" spans="1:61">
+      <c r="A21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="AS20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="AU20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AW20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX20" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY20" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AZ20" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="BA20" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BB20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BD20" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="BH20" s="2"/>
-    </row>
-    <row r="21" ht="57" customHeight="1" spans="1:60">
-      <c r="A21" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D21" s="1">
         <v>40</v>
@@ -5186,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W21" s="1">
         <v>4</v>
@@ -5207,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD21" s="1">
         <v>0</v>
@@ -5231,7 +5258,7 @@
         <v>2</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL21" s="1">
         <v>20</v>
@@ -5246,63 +5273,63 @@
         <v>3</v>
       </c>
       <c r="AP21" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ21" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AS21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AT21" s="1">
+      <c r="AU21" s="1">
         <v>0.46</v>
       </c>
-      <c r="AU21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV21" s="1" t="s">
-        <v>139</v>
+      <c r="AV21" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX21" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY21" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AZ21" s="1">
+        <v>141</v>
+      </c>
+      <c r="AX21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ21" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA21" s="1">
         <v>0.24</v>
       </c>
-      <c r="BA21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BB21" s="1">
+      <c r="BB21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC21" s="1">
         <v>0.8</v>
       </c>
-      <c r="BC21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BD21" s="1">
+      <c r="BD21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BE21" s="1">
         <v>0.26</v>
       </c>
-      <c r="BH21" s="2" t="s">
-        <v>196</v>
+      <c r="BI21" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="22" ht="57" customHeight="1" spans="1:60">
+    <row r="22" ht="57" customHeight="1" spans="1:61">
       <c r="A22" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D22" s="1">
         <v>40</v>
@@ -5359,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -5380,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD22" s="1">
         <v>0</v>
@@ -5404,7 +5431,7 @@
         <v>2</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL22" s="1">
         <v>25</v>
@@ -5419,43 +5446,43 @@
         <v>1</v>
       </c>
       <c r="AP22" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ22" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BI22" s="2"/>
+    </row>
+    <row r="23" ht="57" customHeight="1" spans="1:61">
+      <c r="A23" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="AQ22" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AW22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX22" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AY22" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BD22" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BH22" s="2"/>
-    </row>
-    <row r="23" ht="57" customHeight="1" spans="1:60">
-      <c r="A23" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D23" s="1">
         <v>40</v>
@@ -5512,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W23" s="1">
         <v>4</v>
@@ -5533,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD23" s="1">
         <v>0</v>
@@ -5557,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL23" s="1">
         <v>25</v>
@@ -5572,48 +5599,48 @@
         <v>1</v>
       </c>
       <c r="AP23" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AQ23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV23" s="1" t="s">
-        <v>139</v>
+        <v>191</v>
+      </c>
+      <c r="AV23" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX23" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AY23" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY23" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="BD23" s="1">
+      <c r="AZ23" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE23" s="1">
         <v>0.6</v>
       </c>
-      <c r="BH23" s="2" t="s">
-        <v>206</v>
+      <c r="BI23" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
-    <row r="24" ht="57" customHeight="1" spans="1:60">
+    <row r="24" ht="57" customHeight="1" spans="1:61">
       <c r="A24" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D24" s="1">
         <v>40</v>
@@ -5670,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W24" s="1">
         <v>0</v>
@@ -5691,7 +5718,7 @@
         <v>0.5</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD24" s="1">
         <v>0</v>
@@ -5715,7 +5742,7 @@
         <v>2</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AL24" s="1">
         <v>35</v>
@@ -5730,52 +5757,52 @@
         <v>1</v>
       </c>
       <c r="AP24" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AQ24" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV24" s="1" t="s">
-        <v>139</v>
+      <c r="AU24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX24" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AY24" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="AZ24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY24" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="BD24" s="1">
+      <c r="AZ24" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BE24" s="1">
         <v>0.35</v>
       </c>
-      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
     </row>
-    <row r="25" ht="57" customHeight="1" spans="1:60">
+    <row r="25" ht="57" customHeight="1" spans="1:61">
       <c r="A25" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D25" s="1">
         <v>40</v>
@@ -5832,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="W25" s="1">
         <v>4</v>
@@ -5853,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD25" s="1">
         <v>0</v>
@@ -5877,7 +5904,7 @@
         <v>2</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AL25" s="1">
         <v>35</v>
@@ -5892,46 +5919,381 @@
         <v>1</v>
       </c>
       <c r="AP25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AZ25" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BE25" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="BI25" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" ht="57" customHeight="1" spans="1:61">
+      <c r="A26" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>120</v>
+      </c>
+      <c r="J26" s="1">
+        <v>80</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AQ25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AR25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV25" s="1" t="s">
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>600</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>600</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>20</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AW25" s="1" t="s">
+      <c r="AQ26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR26" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AX25" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AY25" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="AZ25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BD25" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="BH25" s="2" t="s">
-        <v>181</v>
+      <c r="AS26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BE26" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BI26" s="7"/>
+    </row>
+    <row r="27" ht="57" customHeight="1" spans="1:61">
+      <c r="A27" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>120</v>
+      </c>
+      <c r="J27" s="1">
+        <v>80</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="X27" s="1">
+        <v>300</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>300</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>20</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BE27" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BI27" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/WeaponBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="241">
   <si>
     <t>Id</t>
   </si>
@@ -714,6 +714,15 @@
   </si>
   <si>
     <t>0010_ai</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>weapon0011</t>
+  </si>
+  <si>
+    <t>0011_ai</t>
   </si>
   <si>
     <t>0013</t>
@@ -1752,14 +1761,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BL27"/>
+  <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AP22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT26" sqref="AT26"/>
+      <selection pane="bottomRight" activeCell="AR24" sqref="AR24:AR25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2512,6 +2521,9 @@
       <c r="AS4" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="AT4" s="1">
+        <v>1</v>
+      </c>
       <c r="AU4" s="1">
         <v>0</v>
       </c>
@@ -2674,6 +2686,9 @@
       <c r="AS5" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="AT5" s="1">
+        <v>1</v>
+      </c>
       <c r="AU5" s="1">
         <v>0</v>
       </c>
@@ -2840,6 +2855,9 @@
       </c>
       <c r="AS6" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>1</v>
       </c>
       <c r="AU6" s="1">
         <v>0.2</v>
@@ -3015,6 +3033,9 @@
       <c r="AS7" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="AT7" s="1">
+        <v>1</v>
+      </c>
       <c r="AU7" s="1">
         <v>0.2</v>
       </c>
@@ -3193,6 +3214,9 @@
       </c>
       <c r="AS8" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>1</v>
       </c>
       <c r="AU8" s="1">
         <v>0</v>
@@ -3356,6 +3380,9 @@
       <c r="AS9" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="AT9" s="1">
+        <v>1</v>
+      </c>
       <c r="AU9" s="1">
         <v>0</v>
       </c>
@@ -3806,6 +3833,9 @@
       <c r="AS12" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="AT12" s="1">
+        <v>1</v>
+      </c>
       <c r="AU12" s="1">
         <v>0.2</v>
       </c>
@@ -3974,6 +4004,9 @@
       <c r="AS13" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="AT13" s="1">
+        <v>1</v>
+      </c>
       <c r="AU13" s="1">
         <v>0.2</v>
       </c>
@@ -4146,6 +4179,9 @@
       </c>
       <c r="AS14" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>1</v>
       </c>
       <c r="AU14" s="1">
         <v>0</v>
@@ -4309,6 +4345,9 @@
       <c r="AS15" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="AT15" s="1">
+        <v>1</v>
+      </c>
       <c r="AU15" s="1">
         <v>0</v>
       </c>
@@ -4475,6 +4514,9 @@
       </c>
       <c r="AS16" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>1</v>
       </c>
       <c r="AU16" s="1">
         <v>0</v>
@@ -4638,6 +4680,9 @@
       <c r="AS17" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="AT17" s="1">
+        <v>1</v>
+      </c>
       <c r="AU17" s="1">
         <v>0</v>
       </c>
@@ -4798,6 +4843,9 @@
       </c>
       <c r="AQ18" s="2" t="s">
         <v>203</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>1</v>
       </c>
       <c r="AV18" s="1" t="b">
         <v>1</v>
@@ -4952,6 +5000,9 @@
       <c r="AQ19" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="AT19" s="1">
+        <v>1</v>
+      </c>
       <c r="AV19" s="1" t="b">
         <v>1</v>
       </c>
@@ -5114,6 +5165,9 @@
         <v>211</v>
       </c>
       <c r="AS20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="1">
         <v>1</v>
       </c>
       <c r="AU20" s="1">
@@ -5284,6 +5338,9 @@
       <c r="AS21" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="AT21" s="1">
+        <v>1</v>
+      </c>
       <c r="AU21" s="1">
         <v>0.46</v>
       </c>
@@ -5450,6 +5507,9 @@
       </c>
       <c r="AQ22" s="2" t="s">
         <v>191</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>1</v>
       </c>
       <c r="AV22" s="1" t="b">
         <v>1</v>
@@ -5604,6 +5664,9 @@
       <c r="AQ23" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="AT23" s="1">
+        <v>1</v>
+      </c>
       <c r="AV23" s="1" t="b">
         <v>1</v>
       </c>
@@ -5640,10 +5703,10 @@
         <v>226</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D24" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -5655,16 +5718,16 @@
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I24" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J24" s="1">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="K24" s="1">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L24" s="1" t="b">
         <v>0</v>
@@ -5703,10 +5766,10 @@
         <v>0</v>
       </c>
       <c r="X24" s="1">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="Y24" s="1">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="Z24" s="1">
         <v>0</v>
@@ -5715,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>137</v>
@@ -5724,16 +5787,16 @@
         <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF24" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AG24" s="1">
         <v>2</v>
       </c>
       <c r="AH24" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI24" s="1">
         <v>0.3</v>
@@ -5742,13 +5805,13 @@
         <v>2</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="AL24" s="1">
         <v>35</v>
       </c>
       <c r="AM24" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN24" s="1">
         <v>0</v>
@@ -5760,14 +5823,13 @@
         <v>139</v>
       </c>
       <c r="AQ24" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR24" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="AR24" s="1"/>
       <c r="AS24" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="AT24" s="1"/>
       <c r="AU24" s="1">
         <v>0</v>
       </c>
@@ -5781,31 +5843,31 @@
         <v>142</v>
       </c>
       <c r="AY24" s="2" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="AZ24" s="5" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="BA24" s="1">
         <v>0</v>
       </c>
       <c r="BD24" s="1" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="BI24" s="2"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:61">
       <c r="A25" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D25" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -5817,16 +5879,16 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I25" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J25" s="1">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="K25" s="1">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L25" s="1" t="b">
         <v>0</v>
@@ -5859,16 +5921,16 @@
         <v>0</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="W25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X25" s="1">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Y25" s="1">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Z25" s="1">
         <v>0</v>
@@ -5886,16 +5948,16 @@
         <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AF25" s="1">
         <v>30</v>
       </c>
       <c r="AG25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH25" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AI25" s="1">
         <v>0.3</v>
@@ -5904,13 +5966,13 @@
         <v>2</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="AL25" s="1">
         <v>35</v>
       </c>
       <c r="AM25" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN25" s="1">
         <v>0</v>
@@ -5922,14 +5984,13 @@
         <v>139</v>
       </c>
       <c r="AQ25" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR25" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="AR25" s="1"/>
       <c r="AS25" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="AT25" s="1"/>
       <c r="AU25" s="1">
         <v>0</v>
       </c>
@@ -5943,57 +6004,57 @@
         <v>142</v>
       </c>
       <c r="AY25" s="2" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="AZ25" s="5" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="BA25" s="1">
         <v>0</v>
       </c>
       <c r="BD25" s="1" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="BI25" s="2" t="s">
-        <v>183</v>
+        <v>0.6</v>
+      </c>
+      <c r="BI25" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="26" ht="57" customHeight="1" spans="1:61">
       <c r="A26" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D26" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G26" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I26" s="1">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="J26" s="1">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" s="1" t="b">
         <v>0</v>
@@ -6023,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>137</v>
@@ -6032,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="Y26" s="1">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="Z26" s="1">
         <v>0</v>
@@ -6044,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>137</v>
@@ -6053,31 +6114,31 @@
         <v>0</v>
       </c>
       <c r="AE26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG26" s="1">
         <v>2</v>
       </c>
-      <c r="AF26" s="1">
-        <v>25</v>
-      </c>
-      <c r="AG26" s="1">
-        <v>5</v>
-      </c>
       <c r="AH26" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="AL26" s="1">
         <v>35</v>
       </c>
       <c r="AM26" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AN26" s="1">
         <v>0</v>
@@ -6085,20 +6146,20 @@
       <c r="AO26" s="1">
         <v>1</v>
       </c>
-      <c r="AP26" s="2" t="s">
+      <c r="AP26" s="4" t="s">
         <v>139</v>
       </c>
       <c r="AQ26" s="2" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="AR26" s="1" t="s">
         <v>140</v>
       </c>
       <c r="AS26" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="1">
         <v>0</v>
@@ -6113,34 +6174,34 @@
         <v>142</v>
       </c>
       <c r="AY26" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ26" s="1" t="s">
-        <v>165</v>
+        <v>232</v>
+      </c>
+      <c r="AZ26" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="BA26" s="1">
         <v>0</v>
       </c>
       <c r="BD26" s="1" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BI26" s="7"/>
+        <v>0.35</v>
+      </c>
+      <c r="BI26" s="2"/>
     </row>
     <row r="27" ht="57" customHeight="1" spans="1:61">
       <c r="A27" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D27" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1" t="b">
         <v>0</v>
@@ -6149,16 +6210,16 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I27" s="1">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="J27" s="1">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="1" t="b">
         <v>0</v>
@@ -6188,19 +6249,19 @@
         <v>0</v>
       </c>
       <c r="U27" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="W27" s="1">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="X27" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Y27" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Z27" s="1">
         <v>0</v>
@@ -6218,31 +6279,31 @@
         <v>0</v>
       </c>
       <c r="AE27" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AJ27" s="1">
         <v>2</v>
       </c>
-      <c r="AF27" s="1">
-        <v>25</v>
-      </c>
-      <c r="AG27" s="1">
-        <v>5</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>25</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AJ27" s="1">
-        <v>4</v>
-      </c>
       <c r="AK27" s="1" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="AL27" s="1">
         <v>35</v>
       </c>
       <c r="AM27" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AN27" s="1">
         <v>0</v>
@@ -6250,20 +6311,20 @@
       <c r="AO27" s="1">
         <v>1</v>
       </c>
-      <c r="AP27" s="2" t="s">
+      <c r="AP27" s="4" t="s">
         <v>139</v>
       </c>
       <c r="AQ27" s="2" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="AR27" s="1" t="s">
         <v>140</v>
       </c>
       <c r="AS27" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AU27" s="1">
         <v>0</v>
@@ -6278,21 +6339,356 @@
         <v>142</v>
       </c>
       <c r="AY27" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AZ27" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BE27" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="BI27" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" ht="57" customHeight="1" spans="1:61">
+      <c r="A28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>120</v>
+      </c>
+      <c r="J28" s="1">
+        <v>80</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>600</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>600</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY28" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AZ27" s="1" t="s">
+      <c r="AZ28" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD27" s="1" t="s">
+      <c r="BA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BE27" s="1">
+      <c r="BE28" s="1">
         <v>0.43</v>
       </c>
-      <c r="BI27" s="7" t="s">
+      <c r="BI28" s="7"/>
+    </row>
+    <row r="29" ht="57" customHeight="1" spans="1:61">
+      <c r="A29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="1">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>120</v>
+      </c>
+      <c r="J29" s="1">
+        <v>80</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="X29" s="1">
+        <v>300</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>300</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>20</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BE29" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BI29" s="7" t="s">
         <v>160</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/WeaponBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="250">
   <si>
     <t>Id</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>StandbyAmmoCapacity</t>
+  </si>
+  <si>
+    <t>ShowReloadBar</t>
+  </si>
+  <si>
+    <t>AutoReload</t>
   </si>
   <si>
     <t>ReloadTime</t>
@@ -247,6 +253,12 @@
     <t>默认起始备用弹药数量</t>
   </si>
   <si>
+    <t>换弹是否显示换弹进度</t>
+  </si>
+  <si>
+    <t>弹夹打空是否自动换弹</t>
+  </si>
+  <si>
     <t>装弹时间 (单位: 秒)</t>
   </si>
   <si>
@@ -762,6 +774,21 @@
   </si>
   <si>
     <t>0014_ai</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>木质短弓</t>
+  </si>
+  <si>
+    <t>weapon0016</t>
+  </si>
+  <si>
+    <t>[-2,-2]</t>
+  </si>
+  <si>
+    <t>0016_ai</t>
   </si>
 </sst>
 </file>
@@ -1761,14 +1788,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BL29"/>
+  <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AP22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="R28" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR24" sqref="AR24:AR25"/>
+      <selection pane="bottomRight" activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1782,52 +1809,54 @@
     <col min="8" max="8" width="17.2181818181818" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.8909090909091" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.1818181818182" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7818181818182" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.0454545454545" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.2181818181818" style="1" customWidth="1"/>
-    <col min="14" max="14" width="33.4727272727273" style="1" customWidth="1"/>
-    <col min="15" max="15" width="34.2818181818182" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6454545454545" style="1" customWidth="1"/>
-    <col min="17" max="17" width="27.6636363636364" style="1" customWidth="1"/>
-    <col min="18" max="19" width="25.0727272727273" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.2272727272727" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.6454545454545" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24.8909090909091" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.3363636363636" style="1" customWidth="1"/>
-    <col min="24" max="24" width="23.3363636363636" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20.9545454545455" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.1090909090909" style="1" customWidth="1"/>
-    <col min="27" max="28" width="23.7818181818182" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22.5454545454545" style="1" customWidth="1"/>
-    <col min="30" max="30" width="20.4636363636364" style="1" customWidth="1"/>
-    <col min="31" max="31" width="26.6545454545455" style="1" customWidth="1"/>
-    <col min="32" max="32" width="26.5090909090909" style="1" customWidth="1"/>
-    <col min="33" max="33" width="29.2" style="1" customWidth="1"/>
-    <col min="34" max="34" width="30" style="1" customWidth="1"/>
-    <col min="35" max="35" width="34.4090909090909" style="1" customWidth="1"/>
-    <col min="36" max="36" width="17.7818181818182" style="1" customWidth="1"/>
-    <col min="37" max="37" width="20" style="1" customWidth="1"/>
-    <col min="38" max="38" width="30.9818181818182" style="1" customWidth="1"/>
-    <col min="39" max="39" width="22.9636363636364" style="1" customWidth="1"/>
-    <col min="40" max="40" width="23.7" style="1" customWidth="1"/>
-    <col min="41" max="42" width="27.6454545454545" style="1" customWidth="1"/>
-    <col min="43" max="43" width="27.7818181818182" style="2" customWidth="1"/>
-    <col min="44" max="47" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="48" max="50" width="24.0727272727273" style="1" customWidth="1"/>
-    <col min="51" max="51" width="21.1090909090909" style="1" customWidth="1"/>
-    <col min="52" max="52" width="22.1" style="1" customWidth="1"/>
-    <col min="53" max="53" width="29.7545454545455" style="1" customWidth="1"/>
-    <col min="54" max="54" width="20.1181818181818" style="1" customWidth="1"/>
-    <col min="55" max="55" width="25.2272727272727" style="1" customWidth="1"/>
-    <col min="56" max="56" width="23.7" style="1" customWidth="1"/>
-    <col min="57" max="57" width="37.9272727272727" style="1" customWidth="1"/>
-    <col min="58" max="58" width="22.5909090909091" style="1" customWidth="1"/>
-    <col min="59" max="59" width="30.4636363636364" style="1" customWidth="1"/>
-    <col min="60" max="60" width="31.8545454545455" style="1" customWidth="1"/>
-    <col min="61" max="61" width="32.4636363636364" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7818181818182" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.0454545454545" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.2181818181818" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33.4727272727273" style="1" customWidth="1"/>
+    <col min="17" max="17" width="34.2818181818182" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.6454545454545" style="1" customWidth="1"/>
+    <col min="19" max="19" width="27.6636363636364" style="1" customWidth="1"/>
+    <col min="20" max="21" width="25.0727272727273" style="1" customWidth="1"/>
+    <col min="22" max="22" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.6454545454545" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.8909090909091" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.3363636363636" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.3363636363636" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20.9545454545455" style="1" customWidth="1"/>
+    <col min="28" max="28" width="23.1090909090909" style="1" customWidth="1"/>
+    <col min="29" max="30" width="23.7818181818182" style="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5454545454545" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20.4636363636364" style="1" customWidth="1"/>
+    <col min="33" max="33" width="26.6545454545455" style="1" customWidth="1"/>
+    <col min="34" max="34" width="26.5090909090909" style="1" customWidth="1"/>
+    <col min="35" max="35" width="29.2" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30" style="1" customWidth="1"/>
+    <col min="37" max="37" width="34.4090909090909" style="1" customWidth="1"/>
+    <col min="38" max="38" width="17.7818181818182" style="1" customWidth="1"/>
+    <col min="39" max="39" width="20" style="1" customWidth="1"/>
+    <col min="40" max="40" width="30.9818181818182" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.9636363636364" style="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7" style="1" customWidth="1"/>
+    <col min="43" max="44" width="27.6454545454545" style="1" customWidth="1"/>
+    <col min="45" max="45" width="27.7818181818182" style="2" customWidth="1"/>
+    <col min="46" max="49" width="27.7818181818182" style="1" customWidth="1"/>
+    <col min="50" max="52" width="24.0727272727273" style="1" customWidth="1"/>
+    <col min="53" max="53" width="21.1090909090909" style="1" customWidth="1"/>
+    <col min="54" max="54" width="22.1" style="1" customWidth="1"/>
+    <col min="55" max="55" width="29.7545454545455" style="1" customWidth="1"/>
+    <col min="56" max="56" width="20.1181818181818" style="1" customWidth="1"/>
+    <col min="57" max="57" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="58" max="58" width="23.7" style="1" customWidth="1"/>
+    <col min="59" max="59" width="37.9272727272727" style="1" customWidth="1"/>
+    <col min="60" max="60" width="22.5909090909091" style="1" customWidth="1"/>
+    <col min="61" max="61" width="30.4636363636364" style="1" customWidth="1"/>
+    <col min="62" max="62" width="31.8545454545455" style="1" customWidth="1"/>
+    <col min="63" max="63" width="32.4636363636364" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:61">
+    <row r="1" ht="31" customHeight="1" spans="1:63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1954,13 +1983,13 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
@@ -2008,392 +2037,410 @@
       <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:64">
+    <row r="2" ht="114" customHeight="1" spans="1:66">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:61">
+    <row r="3" ht="27" customHeight="1" spans="1:63">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="X3" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS3" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>127</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AW3" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:61">
+    <row r="4" ht="57" customHeight="1" spans="1:63">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2416,149 +2463,155 @@
       <c r="J4" s="1">
         <v>390</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="N4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>137</v>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
         <v>480</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AA4" s="1">
         <v>480</v>
       </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
       <c r="AB4" s="1">
         <v>0</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>137</v>
+      <c r="AC4" s="1">
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
         <v>0</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
         <v>5</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AH4" s="1">
         <v>45</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AI4" s="1">
         <v>3</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AJ4" s="1">
         <v>40</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AK4" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AL4" s="1">
         <v>2</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>35</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AL4" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AT4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BK4" s="7"/>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:63">
+      <c r="A5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BI4" s="7"/>
-    </row>
-    <row r="5" ht="57" customHeight="1" spans="1:61">
-      <c r="A5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2581,154 +2634,160 @@
       <c r="J5" s="1">
         <v>390</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="N5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>480</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>480</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>45</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>40</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>35</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="W5" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="X5" s="1">
-        <v>480</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>480</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>45</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>40</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="1" t="s">
+      <c r="BB5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BK5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AL5" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BI5" s="7" t="s">
-        <v>134</v>
-      </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:61">
+    <row r="6" ht="57" customHeight="1" spans="1:63">
       <c r="A6" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2751,161 +2810,167 @@
       <c r="J6" s="1">
         <v>133</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.26</v>
       </c>
-      <c r="L6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="N6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
         <v>0.5</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>0.45</v>
       </c>
-      <c r="P6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
+      <c r="R6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="S6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
         <v>0.6</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
+      <c r="X6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
         <v>120</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
         <v>120</v>
       </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
       <c r="AB6" s="1">
         <v>0</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>151</v>
+      <c r="AC6" s="1">
+        <v>0</v>
       </c>
       <c r="AD6" s="1">
         <v>0</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
         <v>12</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AH6" s="1">
         <v>30</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AI6" s="1">
         <v>20</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AJ6" s="1">
         <v>40</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AK6" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AL6" s="1">
         <v>4</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>35</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AL6" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>15</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AX6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="7"/>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:63">
+      <c r="A7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="AS6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AV6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="7"/>
-    </row>
-    <row r="7" ht="57" customHeight="1" spans="1:61">
-      <c r="A7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2928,166 +2993,172 @@
       <c r="J7" s="1">
         <v>133</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.26</v>
       </c>
-      <c r="L7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="N7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
         <v>0.5</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <v>0.45</v>
       </c>
-      <c r="P7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
+      <c r="R7" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="S7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
         <v>0.6</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y7" s="1">
         <v>3</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Z7" s="1">
         <v>120</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AA7" s="1">
         <v>120</v>
       </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
       <c r="AB7" s="1">
         <v>0</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>151</v>
+      <c r="AC7" s="1">
+        <v>0</v>
       </c>
       <c r="AD7" s="1">
         <v>0</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
         <v>12</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AH7" s="1">
         <v>30</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AI7" s="1">
         <v>20</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AJ7" s="1">
         <v>40</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AK7" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AL7" s="1">
         <v>4</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>35</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>15</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AL7" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>15</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="1">
+      <c r="AT7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="1">
         <v>0.2</v>
       </c>
-      <c r="AV7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>154</v>
+      <c r="AX7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="BC7" s="1">
         <v>0</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG7" s="1">
         <v>0.3</v>
       </c>
-      <c r="BF7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="7" t="s">
-        <v>148</v>
+      <c r="BH7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:61">
+    <row r="8" ht="57" customHeight="1" spans="1:63">
       <c r="A8" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3110,149 +3181,155 @@
       <c r="J8" s="1">
         <v>168</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <v>1.4</v>
       </c>
-      <c r="L8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="N8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
         <v>0.05</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
+      <c r="X8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
         <v>460</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AA8" s="1">
         <v>460</v>
       </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
       <c r="AB8" s="1">
         <v>0</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>137</v>
+      <c r="AC8" s="1">
+        <v>0</v>
       </c>
       <c r="AD8" s="1">
         <v>0</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
         <v>5</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AH8" s="1">
         <v>25</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AI8" s="1">
         <v>4</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AJ8" s="1">
         <v>40</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AK8" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AL8" s="1">
         <v>4</v>
       </c>
-      <c r="AK8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL8" s="1">
+      <c r="AM8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN8" s="1">
         <v>35</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AO8" s="1">
         <v>20</v>
       </c>
-      <c r="AN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>164</v>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="AZ8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BK8" s="7"/>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:63">
+      <c r="A9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="BA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BE8" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BI8" s="7"/>
-    </row>
-    <row r="9" ht="57" customHeight="1" spans="1:61">
-      <c r="A9" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3275,154 +3352,160 @@
       <c r="J9" s="1">
         <v>168</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>1.4</v>
       </c>
-      <c r="L9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="N9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
         <v>0.05</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W9" s="1">
-        <v>1</v>
-      </c>
-      <c r="X9" s="1">
+      <c r="X9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
         <v>300</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AA9" s="1">
         <v>300</v>
       </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
       <c r="AB9" s="1">
         <v>0</v>
       </c>
-      <c r="AC9" s="1" t="s">
-        <v>137</v>
+      <c r="AC9" s="1">
+        <v>0</v>
       </c>
       <c r="AD9" s="1">
         <v>0</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
         <v>5</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AH9" s="1">
         <v>25</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AI9" s="1">
         <v>4</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AJ9" s="1">
         <v>40</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AK9" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AL9" s="1">
         <v>4</v>
       </c>
-      <c r="AK9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL9" s="1">
+      <c r="AM9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN9" s="1">
         <v>35</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AO9" s="1">
         <v>20</v>
       </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY9" s="2" t="s">
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BK9" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="AZ9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BI9" s="7" t="s">
-        <v>160</v>
-      </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:61">
+    <row r="10" ht="57" customHeight="1" spans="1:63">
       <c r="A10" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3445,68 +3528,68 @@
       <c r="J10" s="1">
         <v>180</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <v>2</v>
       </c>
-      <c r="L10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="N10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>137</v>
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W10" s="1">
         <v>0</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
         <v>180</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AA10" s="1">
         <v>180</v>
       </c>
-      <c r="Z10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
       <c r="AB10" s="1">
         <v>0</v>
       </c>
-      <c r="AC10" s="1" t="s">
-        <v>137</v>
+      <c r="AC10" s="1">
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
         <v>0</v>
       </c>
-      <c r="AE10" s="1">
-        <v>0</v>
+      <c r="AE10" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AF10" s="1">
         <v>0</v>
@@ -3521,47 +3604,53 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
         <v>7</v>
       </c>
-      <c r="AK10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL10" s="1">
+      <c r="AM10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN10" s="1">
         <v>24</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AO10" s="1">
         <v>-95</v>
       </c>
-      <c r="AN10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI10" s="7"/>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK10" s="7"/>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:61">
+    <row r="11" ht="57" customHeight="1" spans="1:63">
       <c r="A11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3584,68 +3673,68 @@
       <c r="J11" s="1">
         <v>180</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
         <v>2</v>
       </c>
-      <c r="L11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="N11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>137</v>
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y11" s="1">
         <v>3</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Z11" s="1">
         <v>180</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AA11" s="1">
         <v>180</v>
       </c>
-      <c r="Z11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0</v>
-      </c>
       <c r="AB11" s="1">
         <v>0</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>137</v>
+      <c r="AC11" s="1">
+        <v>0</v>
       </c>
       <c r="AD11" s="1">
         <v>0</v>
       </c>
-      <c r="AE11" s="1">
-        <v>0</v>
+      <c r="AE11" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AF11" s="1">
         <v>0</v>
@@ -3660,52 +3749,58 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1">
         <v>7</v>
       </c>
-      <c r="AK11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL11" s="1">
+      <c r="AM11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN11" s="1">
         <v>24</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AO11" s="1">
         <v>-95</v>
       </c>
-      <c r="AN11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2" t="s">
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="AU11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI11" s="7" t="s">
-        <v>168</v>
-      </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:61">
+    <row r="12" ht="57" customHeight="1" spans="1:63">
       <c r="A12" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3728,155 +3823,161 @@
       <c r="J12" s="1">
         <v>70</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <v>2.8</v>
       </c>
-      <c r="L12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="N12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
         <v>0.9</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W12" s="1">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1">
+      <c r="X12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
         <v>150</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AA12" s="1">
         <v>150</v>
       </c>
-      <c r="Z12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>0</v>
-      </c>
       <c r="AB12" s="1">
         <v>0</v>
       </c>
-      <c r="AC12" s="1" t="s">
-        <v>137</v>
+      <c r="AC12" s="1">
+        <v>0</v>
       </c>
       <c r="AD12" s="1">
         <v>0</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AE12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
         <v>3</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AH12" s="1">
         <v>60</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AI12" s="1">
         <v>40</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AJ12" s="1">
         <v>40</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AK12" s="1">
         <v>0.8</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AL12" s="1">
         <v>5</v>
       </c>
-      <c r="AK12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL12" s="1">
+      <c r="AM12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN12" s="1">
         <v>20</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AO12" s="1">
         <v>15</v>
       </c>
-      <c r="AN12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ12" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="1">
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="1">
         <v>0.2</v>
       </c>
-      <c r="AV12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX12" s="1" t="s">
-        <v>142</v>
+      <c r="AX12" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AY12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB12" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="7"/>
+    </row>
+    <row r="13" ht="57" customHeight="1" spans="1:63">
+      <c r="A13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="AZ12" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="BA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="7"/>
-    </row>
-    <row r="13" ht="57" customHeight="1" spans="1:61">
-      <c r="A13" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3899,160 +4000,166 @@
       <c r="J13" s="1">
         <v>70</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <v>2.8</v>
       </c>
-      <c r="L13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="N13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
         <v>0.9</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" s="1">
         <v>4</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Z13" s="1">
         <v>150</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AA13" s="1">
         <v>150</v>
       </c>
-      <c r="Z13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0</v>
-      </c>
       <c r="AB13" s="1">
         <v>0</v>
       </c>
-      <c r="AC13" s="1" t="s">
-        <v>137</v>
+      <c r="AC13" s="1">
+        <v>0</v>
       </c>
       <c r="AD13" s="1">
         <v>0</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1">
         <v>3</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AH13" s="1">
         <v>60</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AI13" s="1">
         <v>40</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AJ13" s="1">
         <v>40</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AK13" s="1">
         <v>0.8</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AL13" s="1">
         <v>5</v>
       </c>
-      <c r="AK13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL13" s="1">
+      <c r="AM13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN13" s="1">
         <v>20</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AO13" s="1">
         <v>15</v>
       </c>
-      <c r="AN13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ13" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AR13" s="1" t="s">
+      <c r="AP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AX13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB13" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AS13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AV13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AZ13" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="BA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BE13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="7" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:61">
+    <row r="14" ht="57" customHeight="1" spans="1:63">
       <c r="A14" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -4075,149 +4182,155 @@
       <c r="J14" s="1">
         <v>580</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
         <v>1.8</v>
       </c>
-      <c r="L14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="N14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>137</v>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
         <v>700</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AA14" s="1">
         <v>700</v>
       </c>
-      <c r="Z14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>0</v>
-      </c>
       <c r="AB14" s="1">
         <v>0</v>
       </c>
-      <c r="AC14" s="1" t="s">
-        <v>137</v>
+      <c r="AC14" s="1">
+        <v>0</v>
       </c>
       <c r="AD14" s="1">
         <v>0</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AE14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
         <v>3</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AH14" s="1">
         <v>30</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AI14" s="1">
         <v>2</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AJ14" s="1">
         <v>40</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AK14" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AL14" s="1">
         <v>2</v>
       </c>
-      <c r="AK14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL14" s="1">
+      <c r="AM14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN14" s="1">
         <v>35</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AO14" s="1">
         <v>5</v>
       </c>
-      <c r="AN14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY14" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AZ14" s="5" t="s">
+      <c r="AP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB14" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BK14" s="2"/>
+    </row>
+    <row r="15" ht="57" customHeight="1" spans="1:63">
+      <c r="A15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="BA14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE14" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BI14" s="2"/>
-    </row>
-    <row r="15" ht="57" customHeight="1" spans="1:61">
-      <c r="A15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4240,154 +4353,160 @@
       <c r="J15" s="1">
         <v>580</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <v>1.8</v>
       </c>
-      <c r="L15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="N15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>151</v>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" s="1">
         <v>3</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Z15" s="1">
         <v>700</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="AA15" s="1">
         <v>700</v>
       </c>
-      <c r="Z15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>0</v>
-      </c>
       <c r="AB15" s="1">
         <v>0</v>
       </c>
-      <c r="AC15" s="1" t="s">
-        <v>137</v>
+      <c r="AC15" s="1">
+        <v>0</v>
       </c>
       <c r="AD15" s="1">
         <v>0</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1">
         <v>3</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>2</v>
       </c>
       <c r="AH15" s="1">
         <v>30</v>
       </c>
       <c r="AI15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>30</v>
+      </c>
+      <c r="AK15" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AL15" s="1">
         <v>2</v>
       </c>
-      <c r="AK15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL15" s="1">
+      <c r="AM15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN15" s="1">
         <v>35</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AO15" s="1">
         <v>5</v>
       </c>
-      <c r="AN15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY15" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AZ15" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="BA15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE15" s="1">
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB15" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG15" s="1">
         <v>0.6</v>
       </c>
-      <c r="BI15" s="7" t="s">
-        <v>168</v>
+      <c r="BK15" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:61">
+    <row r="16" ht="57" customHeight="1" spans="1:63">
       <c r="A16" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4410,149 +4529,155 @@
       <c r="J16" s="1">
         <v>540</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
         <v>2.2</v>
       </c>
-      <c r="L16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="N16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>137</v>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
         <v>700</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="AA16" s="1">
         <v>700</v>
       </c>
-      <c r="Z16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>0</v>
-      </c>
       <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
         <v>0.5</v>
       </c>
-      <c r="AC16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="1">
+      <c r="AE16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="1">
         <v>6</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AH16" s="1">
         <v>60</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AI16" s="1">
         <v>3</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AJ16" s="1">
         <v>50</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AK16" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AL16" s="1">
         <v>2</v>
       </c>
-      <c r="AK16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL16" s="1">
+      <c r="AM16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN16" s="1">
         <v>35</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AO16" s="1">
         <v>5</v>
       </c>
-      <c r="AN16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ16" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY16" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ16" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="BA16" s="1">
+      <c r="AP16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB16" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC16" s="1">
         <v>0.2</v>
       </c>
-      <c r="BD16" s="1" t="s">
+      <c r="BF16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BK16" s="2"/>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:63">
+      <c r="A17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="BE16" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="BI16" s="2"/>
-    </row>
-    <row r="17" ht="57" customHeight="1" spans="1:61">
-      <c r="A17" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4575,154 +4700,160 @@
       <c r="J17" s="1">
         <v>540</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
         <v>2.2</v>
       </c>
-      <c r="L17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="N17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1" t="s">
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>200</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="W17" s="1">
-        <v>4</v>
-      </c>
-      <c r="X17" s="1">
+      <c r="AF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>50</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>35</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB17" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BF17" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="Y17" s="1">
-        <v>200</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>10</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>50</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL17" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM17" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY17" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ17" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="BA17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BD17" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE17" s="1">
+      <c r="BG17" s="1">
         <v>0.65</v>
       </c>
-      <c r="BI17" s="2" t="s">
-        <v>183</v>
+      <c r="BK17" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="18" ht="57" customHeight="1" spans="1:61">
+    <row r="18" ht="57" customHeight="1" spans="1:63">
       <c r="A18" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -4745,140 +4876,146 @@
       <c r="J18" s="1">
         <v>120</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <v>1.8</v>
       </c>
-      <c r="L18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="N18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>137</v>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
         <v>300</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="AA18" s="1">
         <v>300</v>
       </c>
-      <c r="Z18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>0</v>
-      </c>
       <c r="AB18" s="1">
         <v>0</v>
       </c>
-      <c r="AC18" s="1" t="s">
-        <v>137</v>
+      <c r="AC18" s="1">
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>0</v>
       </c>
-      <c r="AE18" s="1">
-        <v>0</v>
+      <c r="AE18" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
         <v>8</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AI18" s="1">
         <v>3</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AJ18" s="1">
         <v>20</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AK18" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AL18" s="1">
         <v>2</v>
       </c>
-      <c r="AK18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL18" s="1">
+      <c r="AM18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN18" s="1">
         <v>25</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AO18" s="1">
         <v>13</v>
       </c>
-      <c r="AN18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
+      <c r="AP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB18" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BK18" s="2"/>
+    </row>
+    <row r="19" ht="57" customHeight="1" spans="1:63">
+      <c r="A19" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="AT18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY18" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ18" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BE18" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="BI18" s="2"/>
-    </row>
-    <row r="19" ht="57" customHeight="1" spans="1:61">
-      <c r="A19" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -4901,145 +5038,151 @@
       <c r="J19" s="1">
         <v>120</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
         <v>1.8</v>
       </c>
-      <c r="L19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="N19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>137</v>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y19" s="1">
         <v>3</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Z19" s="1">
         <v>300</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="AA19" s="1">
         <v>300</v>
       </c>
-      <c r="Z19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>0</v>
-      </c>
       <c r="AB19" s="1">
         <v>0</v>
       </c>
-      <c r="AC19" s="1" t="s">
-        <v>137</v>
+      <c r="AC19" s="1">
+        <v>0</v>
       </c>
       <c r="AD19" s="1">
         <v>0</v>
       </c>
-      <c r="AE19" s="1">
-        <v>0</v>
+      <c r="AE19" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="1">
         <v>8</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AI19" s="1">
         <v>3</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AJ19" s="1">
         <v>20</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AK19" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AL19" s="1">
         <v>2</v>
       </c>
-      <c r="AK19" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL19" s="1">
+      <c r="AM19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN19" s="1">
         <v>25</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AO19" s="1">
         <v>13</v>
       </c>
-      <c r="AN19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP19" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AQ19" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AT19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY19" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ19" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD19" s="1" t="s">
+      <c r="AP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="BE19" s="1">
+      <c r="AS19" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB19" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG19" s="1">
         <v>0.8</v>
       </c>
-      <c r="BI19" s="2" t="s">
-        <v>191</v>
+      <c r="BK19" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="20" ht="57" customHeight="1" spans="1:61">
+    <row r="20" ht="57" customHeight="1" spans="1:63">
       <c r="A20" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D20" s="1">
         <v>40</v>
@@ -5062,155 +5205,161 @@
       <c r="J20" s="1">
         <v>25</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
         <v>1.5</v>
       </c>
-      <c r="L20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="N20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>137</v>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
       </c>
-      <c r="X20" s="1">
-        <v>60</v>
+      <c r="X20" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="Y20" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB20" s="1">
         <v>0</v>
       </c>
-      <c r="AC20" s="1" t="s">
-        <v>137</v>
+      <c r="AC20" s="1">
+        <v>0</v>
       </c>
       <c r="AD20" s="1">
         <v>0</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AE20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
         <v>3</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AH20" s="1">
         <v>8</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AI20" s="1">
         <v>5</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AJ20" s="1">
         <v>40</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AK20" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AL20" s="1">
         <v>2</v>
       </c>
-      <c r="AK20" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL20" s="1">
+      <c r="AM20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN20" s="1">
         <v>20</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AO20" s="1">
         <v>16</v>
       </c>
-      <c r="AN20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="1">
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
         <v>3</v>
       </c>
-      <c r="AP20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ20" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AR20" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="1">
+      <c r="AR20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="1">
         <v>0.46</v>
       </c>
-      <c r="AV20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY20" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ20" s="5" t="s">
+      <c r="AX20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB20" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="BD20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BF20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG20" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="BK20" s="2"/>
+    </row>
+    <row r="21" ht="57" customHeight="1" spans="1:63">
+      <c r="A21" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="BA20" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="BB20" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BC20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="BD20" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BE20" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="BI20" s="2"/>
-    </row>
-    <row r="21" ht="57" customHeight="1" spans="1:61">
-      <c r="A21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D21" s="1">
         <v>40</v>
@@ -5233,160 +5382,166 @@
       <c r="J21" s="1">
         <v>25</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
         <v>1.5</v>
       </c>
-      <c r="L21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="N21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>137</v>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y21" s="1">
         <v>4</v>
       </c>
-      <c r="X21" s="1">
-        <v>60</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>60</v>
-      </c>
       <c r="Z21" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB21" s="1">
         <v>0</v>
       </c>
-      <c r="AC21" s="1" t="s">
-        <v>137</v>
+      <c r="AC21" s="1">
+        <v>0</v>
       </c>
       <c r="AD21" s="1">
         <v>0</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AE21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
         <v>3</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AH21" s="1">
         <v>8</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AI21" s="1">
         <v>5</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AJ21" s="1">
         <v>40</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AK21" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AL21" s="1">
         <v>2</v>
       </c>
-      <c r="AK21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL21" s="1">
+      <c r="AM21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN21" s="1">
         <v>20</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AO21" s="1">
         <v>16</v>
       </c>
-      <c r="AN21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="1">
+      <c r="AP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1">
         <v>3</v>
       </c>
-      <c r="AP21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ21" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AR21" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="1">
+      <c r="AR21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="1">
         <v>0.46</v>
       </c>
-      <c r="AV21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY21" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ21" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA21" s="1">
+      <c r="AX21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB21" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC21" s="1">
         <v>0.24</v>
       </c>
-      <c r="BB21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BC21" s="1">
+      <c r="BD21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BE21" s="1">
         <v>0.8</v>
       </c>
-      <c r="BD21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BE21" s="1">
+      <c r="BF21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG21" s="1">
         <v>0.26</v>
       </c>
-      <c r="BI21" s="2" t="s">
-        <v>198</v>
+      <c r="BK21" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="22" ht="57" customHeight="1" spans="1:61">
+    <row r="22" ht="57" customHeight="1" spans="1:63">
       <c r="A22" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D22" s="1">
         <v>40</v>
@@ -5409,140 +5564,146 @@
       <c r="J22" s="1">
         <v>80</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
         <v>2</v>
       </c>
-      <c r="L22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="N22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O22" s="1">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>137</v>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
         <v>210</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="AA22" s="1">
         <v>210</v>
       </c>
-      <c r="Z22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>0</v>
-      </c>
       <c r="AB22" s="1">
         <v>0</v>
       </c>
-      <c r="AC22" s="1" t="s">
-        <v>137</v>
+      <c r="AC22" s="1">
+        <v>0</v>
       </c>
       <c r="AD22" s="1">
         <v>0</v>
       </c>
-      <c r="AE22" s="1">
-        <v>0</v>
+      <c r="AE22" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AF22" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="1">
         <v>20</v>
       </c>
       <c r="AI22" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK22" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AL22" s="1">
         <v>2</v>
       </c>
-      <c r="AK22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL22" s="1">
+      <c r="AM22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN22" s="1">
         <v>25</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AO22" s="1">
         <v>16</v>
       </c>
-      <c r="AN22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AT22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY22" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AZ22" s="5" t="s">
+      <c r="AP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB22" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="BC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BG22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BK22" s="2"/>
+    </row>
+    <row r="23" ht="57" customHeight="1" spans="1:63">
+      <c r="A23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="BA22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BE22" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BI22" s="2"/>
-    </row>
-    <row r="23" ht="57" customHeight="1" spans="1:61">
-      <c r="A23" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D23" s="1">
         <v>40</v>
@@ -5565,145 +5726,151 @@
       <c r="J23" s="1">
         <v>80</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
         <v>2</v>
       </c>
-      <c r="L23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="N23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>137</v>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y23" s="1">
         <v>4</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Z23" s="1">
         <v>210</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="AA23" s="1">
         <v>210</v>
       </c>
-      <c r="Z23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>0</v>
-      </c>
       <c r="AB23" s="1">
         <v>0</v>
       </c>
-      <c r="AC23" s="1" t="s">
-        <v>137</v>
+      <c r="AC23" s="1">
+        <v>0</v>
       </c>
       <c r="AD23" s="1">
         <v>0</v>
       </c>
-      <c r="AE23" s="1">
-        <v>0</v>
+      <c r="AE23" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AF23" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="1">
         <v>20</v>
       </c>
       <c r="AI23" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK23" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AL23" s="1">
         <v>2</v>
       </c>
-      <c r="AK23" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL23" s="1">
+      <c r="AM23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN23" s="1">
         <v>25</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AO23" s="1">
         <v>16</v>
       </c>
-      <c r="AN23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP23" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ23" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AT23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY23" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AZ23" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="BA23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD23" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BE23" s="1">
+      <c r="AP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="BC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BG23" s="1">
         <v>0.6</v>
       </c>
-      <c r="BI23" s="2" t="s">
-        <v>208</v>
+      <c r="BK23" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="24" ht="57" customHeight="1" spans="1:61">
+    <row r="24" ht="57" customHeight="1" spans="1:63">
       <c r="A24" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D24" s="1">
         <v>30</v>
@@ -5726,145 +5893,149 @@
       <c r="J24" s="1">
         <v>580</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
         <v>1.8</v>
       </c>
-      <c r="L24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="N24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>137</v>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W24" s="1">
         <v>0</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
         <v>700</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="AA24" s="1">
         <v>700</v>
       </c>
-      <c r="Z24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>0</v>
-      </c>
       <c r="AB24" s="1">
         <v>0</v>
       </c>
-      <c r="AC24" s="1" t="s">
-        <v>137</v>
+      <c r="AC24" s="1">
+        <v>0</v>
       </c>
       <c r="AD24" s="1">
         <v>0</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AE24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
         <v>3</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AH24" s="1">
         <v>30</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AI24" s="1">
         <v>2</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AJ24" s="1">
         <v>40</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AK24" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AL24" s="1">
         <v>2</v>
       </c>
-      <c r="AK24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL24" s="1">
+      <c r="AM24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN24" s="1">
         <v>35</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AO24" s="1">
         <v>5</v>
       </c>
-      <c r="AN24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AZ24" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="BA24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD24" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE24" s="1">
+      <c r="AP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB24" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG24" s="1">
         <v>0.6</v>
       </c>
-      <c r="BI24" s="2"/>
+      <c r="BK24" s="2"/>
     </row>
-    <row r="25" ht="57" customHeight="1" spans="1:61">
+    <row r="25" ht="57" customHeight="1" spans="1:63">
       <c r="A25" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D25" s="1">
         <v>30</v>
@@ -5887,150 +6058,154 @@
       <c r="J25" s="1">
         <v>580</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
         <v>1.8</v>
       </c>
-      <c r="L25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="N25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>151</v>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y25" s="1">
         <v>3</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Z25" s="1">
         <v>700</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="AA25" s="1">
         <v>700</v>
       </c>
-      <c r="Z25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>0</v>
-      </c>
       <c r="AB25" s="1">
         <v>0</v>
       </c>
-      <c r="AC25" s="1" t="s">
-        <v>137</v>
+      <c r="AC25" s="1">
+        <v>0</v>
       </c>
       <c r="AD25" s="1">
         <v>0</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AE25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
         <v>3</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG25" s="1">
-        <v>2</v>
       </c>
       <c r="AH25" s="1">
         <v>30</v>
       </c>
       <c r="AI25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>30</v>
+      </c>
+      <c r="AK25" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AL25" s="1">
         <v>2</v>
       </c>
-      <c r="AK25" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL25" s="1">
+      <c r="AM25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN25" s="1">
         <v>35</v>
       </c>
-      <c r="AM25" s="1">
+      <c r="AO25" s="1">
         <v>5</v>
       </c>
-      <c r="AN25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ25" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AZ25" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="BA25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE25" s="1">
+      <c r="AP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB25" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG25" s="1">
         <v>0.6</v>
       </c>
-      <c r="BI25" s="7" t="s">
-        <v>168</v>
+      <c r="BK25" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="26" ht="57" customHeight="1" spans="1:61">
+    <row r="26" ht="57" customHeight="1" spans="1:63">
       <c r="A26" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D26" s="1">
         <v>40</v>
@@ -6053,149 +6228,155 @@
       <c r="J26" s="1">
         <v>350</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
         <v>2</v>
       </c>
-      <c r="L26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1">
+      <c r="N26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <v>0</v>
-      </c>
-      <c r="P26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1">
-        <v>0</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>137</v>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="W26" s="1">
         <v>0</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
         <v>900</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="AA26" s="1">
         <v>900</v>
       </c>
-      <c r="Z26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>0</v>
-      </c>
       <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
         <v>0.5</v>
       </c>
-      <c r="AC26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="1">
+      <c r="AE26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="1">
         <v>5</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AH26" s="1">
         <v>35</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AI26" s="1">
         <v>2</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AJ26" s="1">
         <v>50</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AK26" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AL26" s="1">
         <v>2</v>
       </c>
-      <c r="AK26" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL26" s="1">
+      <c r="AM26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN26" s="1">
         <v>35</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AO26" s="1">
         <v>3</v>
       </c>
-      <c r="AN26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ26" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR26" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW26" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY26" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ26" s="5" t="s">
+      <c r="AP26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA26" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BB26" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="BC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BG26" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="BK26" s="2"/>
+    </row>
+    <row r="27" ht="57" customHeight="1" spans="1:63">
+      <c r="A27" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="BA26" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD26" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BE26" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="BI26" s="2"/>
-    </row>
-    <row r="27" ht="57" customHeight="1" spans="1:61">
-      <c r="A27" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D27" s="1">
         <v>40</v>
@@ -6218,154 +6399,160 @@
       <c r="J27" s="1">
         <v>350</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
         <v>2</v>
       </c>
-      <c r="L27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="N27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O27" s="1">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1">
-        <v>0</v>
-      </c>
-      <c r="V27" s="1" t="s">
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>500</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>500</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>50</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>35</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA27" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="W27" s="1">
-        <v>4</v>
-      </c>
-      <c r="X27" s="1">
-        <v>500</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>500</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>10</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG27" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>50</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AJ27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL27" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM27" s="1">
-        <v>3</v>
-      </c>
-      <c r="AN27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ27" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR27" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY27" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ27" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD27" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BE27" s="1">
+      <c r="BB27" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="BC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BG27" s="1">
         <v>0.35</v>
       </c>
-      <c r="BI27" s="2" t="s">
-        <v>183</v>
+      <c r="BK27" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="28" ht="57" customHeight="1" spans="1:61">
+    <row r="28" ht="57" customHeight="1" spans="1:63">
       <c r="A28" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D28" s="1">
         <v>20</v>
@@ -6388,7 +6575,7 @@
       <c r="J28" s="1">
         <v>80</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L28" s="1" t="b">
@@ -6397,140 +6584,146 @@
       <c r="M28" s="1">
         <v>1</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O28" s="1">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1">
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
         <v>0.05</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W28" s="1">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1">
+      <c r="X28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
         <v>600</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="AA28" s="1">
         <v>600</v>
       </c>
-      <c r="Z28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>0</v>
-      </c>
       <c r="AB28" s="1">
         <v>0</v>
       </c>
-      <c r="AC28" s="1" t="s">
-        <v>137</v>
+      <c r="AC28" s="1">
+        <v>0</v>
       </c>
       <c r="AD28" s="1">
         <v>0</v>
       </c>
-      <c r="AE28" s="1">
+      <c r="AE28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
         <v>2</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>25</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>5</v>
       </c>
       <c r="AH28" s="1">
         <v>25</v>
       </c>
       <c r="AI28" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK28" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ28" s="1">
+      <c r="AL28" s="1">
         <v>4</v>
       </c>
-      <c r="AK28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL28" s="1">
+      <c r="AM28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN28" s="1">
         <v>35</v>
       </c>
-      <c r="AM28" s="1">
+      <c r="AO28" s="1">
         <v>20</v>
       </c>
-      <c r="AN28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP28" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ28" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AR28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT28" s="1">
+      <c r="AP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="1">
         <v>5</v>
       </c>
-      <c r="AU28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY28" s="2" t="s">
-        <v>164</v>
+      <c r="AW28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY28" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="AZ28" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA28" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BE28" s="1">
+        <v>146</v>
+      </c>
+      <c r="BA28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG28" s="1">
         <v>0.43</v>
       </c>
-      <c r="BI28" s="7"/>
+      <c r="BK28" s="7"/>
     </row>
-    <row r="29" ht="57" customHeight="1" spans="1:61">
+    <row r="29" ht="57" customHeight="1" spans="1:63">
       <c r="A29" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D29" s="1">
         <v>20</v>
@@ -6553,7 +6746,7 @@
       <c r="J29" s="1">
         <v>80</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L29" s="1" t="b">
@@ -6562,134 +6755,449 @@
       <c r="M29" s="1">
         <v>1</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>0</v>
-      </c>
-      <c r="P29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U29" s="1">
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
         <v>0.05</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W29" s="1">
+      <c r="X29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y29" s="1">
         <v>0.8</v>
       </c>
-      <c r="X29" s="1">
+      <c r="Z29" s="1">
         <v>300</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="AA29" s="1">
         <v>300</v>
       </c>
-      <c r="Z29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>0</v>
-      </c>
       <c r="AB29" s="1">
         <v>0</v>
       </c>
-      <c r="AC29" s="1" t="s">
-        <v>137</v>
+      <c r="AC29" s="1">
+        <v>0</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AE29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="1">
         <v>2</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>25</v>
-      </c>
-      <c r="AG29" s="1">
-        <v>5</v>
       </c>
       <c r="AH29" s="1">
         <v>25</v>
       </c>
       <c r="AI29" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK29" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AL29" s="1">
         <v>4</v>
       </c>
-      <c r="AK29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL29" s="1">
+      <c r="AM29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN29" s="1">
         <v>35</v>
       </c>
-      <c r="AM29" s="1">
+      <c r="AO29" s="1">
         <v>20</v>
       </c>
-      <c r="AN29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP29" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ29" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT29" s="1">
+      <c r="AP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="1">
         <v>5</v>
       </c>
-      <c r="AU29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW29" s="1" t="s">
+      <c r="AW29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG29" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BK29" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" ht="57" customHeight="1" spans="1:63">
+      <c r="A30" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="1">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>120</v>
+      </c>
+      <c r="J30" s="1">
+        <v>80</v>
+      </c>
+      <c r="K30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="X30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AX29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY29" s="2" t="s">
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>600</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>600</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>40</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>50</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM30" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>35</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AW30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA30" s="2"/>
+      <c r="BC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BK30" s="7"/>
+    </row>
+    <row r="31" ht="57" customHeight="1" spans="1:63">
+      <c r="A31" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="1">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>120</v>
+      </c>
+      <c r="J31" s="1">
+        <v>80</v>
+      </c>
+      <c r="K31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>300</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>300</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>40</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>50</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>35</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AW31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA31" s="2"/>
+      <c r="BC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG31" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BK31" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="AZ29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA29" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD29" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BE29" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BI29" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/WeaponBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowWidth="19215" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1791,69 +1791,69 @@
   <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="R28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="T28" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T31" sqref="T31"/>
+      <selection pane="bottomRight" activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.2272727272727" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.225" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6818181818182" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1090909090909" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.6636363636364" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1090909090909" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.2181818181818" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8909090909091" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1083333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.2166666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8916666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1833333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.9090909090909" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7818181818182" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.0454545454545" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.2181818181818" style="1" customWidth="1"/>
-    <col min="16" max="16" width="33.4727272727273" style="1" customWidth="1"/>
-    <col min="17" max="17" width="34.2818181818182" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.6454545454545" style="1" customWidth="1"/>
-    <col min="19" max="19" width="27.6636363636364" style="1" customWidth="1"/>
-    <col min="20" max="21" width="25.0727272727273" style="1" customWidth="1"/>
-    <col min="22" max="22" width="25.2272727272727" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.6454545454545" style="1" customWidth="1"/>
-    <col min="24" max="24" width="24.8909090909091" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.3363636363636" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.3363636363636" style="1" customWidth="1"/>
-    <col min="27" max="27" width="20.9545454545455" style="1" customWidth="1"/>
-    <col min="28" max="28" width="23.1090909090909" style="1" customWidth="1"/>
-    <col min="29" max="30" width="23.7818181818182" style="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5454545454545" style="1" customWidth="1"/>
-    <col min="32" max="32" width="20.4636363636364" style="1" customWidth="1"/>
-    <col min="33" max="33" width="26.6545454545455" style="1" customWidth="1"/>
-    <col min="34" max="34" width="26.5090909090909" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.9083333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7833333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.0416666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.2166666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33.475" style="1" customWidth="1"/>
+    <col min="17" max="17" width="34.2833333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.6416666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="20" max="21" width="25.075" style="1" customWidth="1"/>
+    <col min="22" max="22" width="25.225" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.6416666666667" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.8916666666667" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20.9583333333333" style="1" customWidth="1"/>
+    <col min="28" max="28" width="23.1083333333333" style="1" customWidth="1"/>
+    <col min="29" max="30" width="23.7833333333333" style="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5416666666667" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20.4666666666667" style="1" customWidth="1"/>
+    <col min="33" max="33" width="26.6583333333333" style="1" customWidth="1"/>
+    <col min="34" max="34" width="26.5083333333333" style="1" customWidth="1"/>
     <col min="35" max="35" width="29.2" style="1" customWidth="1"/>
     <col min="36" max="36" width="30" style="1" customWidth="1"/>
-    <col min="37" max="37" width="34.4090909090909" style="1" customWidth="1"/>
-    <col min="38" max="38" width="17.7818181818182" style="1" customWidth="1"/>
+    <col min="37" max="37" width="34.4083333333333" style="1" customWidth="1"/>
+    <col min="38" max="38" width="17.7833333333333" style="1" customWidth="1"/>
     <col min="39" max="39" width="20" style="1" customWidth="1"/>
-    <col min="40" max="40" width="30.9818181818182" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.9636363636364" style="1" customWidth="1"/>
+    <col min="40" max="40" width="30.9833333333333" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.9666666666667" style="1" customWidth="1"/>
     <col min="42" max="42" width="23.7" style="1" customWidth="1"/>
-    <col min="43" max="44" width="27.6454545454545" style="1" customWidth="1"/>
-    <col min="45" max="45" width="27.7818181818182" style="2" customWidth="1"/>
-    <col min="46" max="49" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="50" max="52" width="24.0727272727273" style="1" customWidth="1"/>
-    <col min="53" max="53" width="21.1090909090909" style="1" customWidth="1"/>
+    <col min="43" max="44" width="27.6416666666667" style="1" customWidth="1"/>
+    <col min="45" max="45" width="27.7833333333333" style="2" customWidth="1"/>
+    <col min="46" max="49" width="27.7833333333333" style="1" customWidth="1"/>
+    <col min="50" max="52" width="24.075" style="1" customWidth="1"/>
+    <col min="53" max="53" width="21.1083333333333" style="1" customWidth="1"/>
     <col min="54" max="54" width="22.1" style="1" customWidth="1"/>
-    <col min="55" max="55" width="29.7545454545455" style="1" customWidth="1"/>
-    <col min="56" max="56" width="20.1181818181818" style="1" customWidth="1"/>
-    <col min="57" max="57" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="55" max="55" width="29.7583333333333" style="1" customWidth="1"/>
+    <col min="56" max="56" width="20.1166666666667" style="1" customWidth="1"/>
+    <col min="57" max="57" width="25.225" style="1" customWidth="1"/>
     <col min="58" max="58" width="23.7" style="1" customWidth="1"/>
-    <col min="59" max="59" width="37.9272727272727" style="1" customWidth="1"/>
-    <col min="60" max="60" width="22.5909090909091" style="1" customWidth="1"/>
-    <col min="61" max="61" width="30.4636363636364" style="1" customWidth="1"/>
-    <col min="62" max="62" width="31.8545454545455" style="1" customWidth="1"/>
-    <col min="63" max="63" width="32.4636363636364" style="3" customWidth="1"/>
+    <col min="59" max="59" width="37.925" style="1" customWidth="1"/>
+    <col min="60" max="60" width="22.5916666666667" style="1" customWidth="1"/>
+    <col min="61" max="61" width="30.4666666666667" style="1" customWidth="1"/>
+    <col min="62" max="62" width="31.8583333333333" style="1" customWidth="1"/>
+    <col min="63" max="63" width="32.4666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:63">
@@ -6929,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="1">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="N30" s="1" t="b">
         <v>0</v>
@@ -7216,7 +7216,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7233,7 +7233,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/WeaponBase.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19215" windowHeight="9645"/>
+    <workbookView windowWidth="29400" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1791,69 +1778,69 @@
   <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="T28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="V14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X30" sqref="X30"/>
+      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="21.225" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.2211538461538" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1083333333333" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1083333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.2166666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8916666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6826923076923" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1057692307692" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6634615384615" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1057692307692" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.2211538461538" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8942307692308" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1826923076923" style="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.9083333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7833333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.0416666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.2166666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="33.475" style="1" customWidth="1"/>
-    <col min="17" max="17" width="34.2833333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.6416666666667" style="1" customWidth="1"/>
-    <col min="19" max="19" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="20" max="21" width="25.075" style="1" customWidth="1"/>
-    <col min="22" max="22" width="25.225" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.6416666666667" style="1" customWidth="1"/>
-    <col min="24" max="24" width="24.8916666666667" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="20.9583333333333" style="1" customWidth="1"/>
-    <col min="28" max="28" width="23.1083333333333" style="1" customWidth="1"/>
-    <col min="29" max="30" width="23.7833333333333" style="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5416666666667" style="1" customWidth="1"/>
-    <col min="32" max="32" width="20.4666666666667" style="1" customWidth="1"/>
-    <col min="33" max="33" width="26.6583333333333" style="1" customWidth="1"/>
-    <col min="34" max="34" width="26.5083333333333" style="1" customWidth="1"/>
-    <col min="35" max="35" width="29.2" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.9038461538462" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7788461538462" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.0384615384615" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.2211538461538" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33.4711538461538" style="1" customWidth="1"/>
+    <col min="17" max="17" width="34.2788461538462" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.6442307692308" style="1" customWidth="1"/>
+    <col min="19" max="19" width="27.6634615384615" style="1" customWidth="1"/>
+    <col min="20" max="21" width="25.0769230769231" style="1" customWidth="1"/>
+    <col min="22" max="22" width="25.2211538461538" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.6442307692308" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.8942307692308" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.3365384615385" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.3365384615385" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20.9615384615385" style="1" customWidth="1"/>
+    <col min="28" max="28" width="23.1057692307692" style="1" customWidth="1"/>
+    <col min="29" max="30" width="23.7788461538462" style="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5384615384615" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20.4711538461538" style="1" customWidth="1"/>
+    <col min="33" max="33" width="26.6538461538462" style="1" customWidth="1"/>
+    <col min="34" max="34" width="26.5096153846154" style="1" customWidth="1"/>
+    <col min="35" max="35" width="29.2019230769231" style="1" customWidth="1"/>
     <col min="36" max="36" width="30" style="1" customWidth="1"/>
-    <col min="37" max="37" width="34.4083333333333" style="1" customWidth="1"/>
-    <col min="38" max="38" width="17.7833333333333" style="1" customWidth="1"/>
+    <col min="37" max="37" width="34.4038461538462" style="1" customWidth="1"/>
+    <col min="38" max="38" width="17.7788461538462" style="1" customWidth="1"/>
     <col min="39" max="39" width="20" style="1" customWidth="1"/>
-    <col min="40" max="40" width="30.9833333333333" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.9666666666667" style="1" customWidth="1"/>
-    <col min="42" max="42" width="23.7" style="1" customWidth="1"/>
-    <col min="43" max="44" width="27.6416666666667" style="1" customWidth="1"/>
-    <col min="45" max="45" width="27.7833333333333" style="2" customWidth="1"/>
-    <col min="46" max="49" width="27.7833333333333" style="1" customWidth="1"/>
-    <col min="50" max="52" width="24.075" style="1" customWidth="1"/>
-    <col min="53" max="53" width="21.1083333333333" style="1" customWidth="1"/>
-    <col min="54" max="54" width="22.1" style="1" customWidth="1"/>
-    <col min="55" max="55" width="29.7583333333333" style="1" customWidth="1"/>
-    <col min="56" max="56" width="20.1166666666667" style="1" customWidth="1"/>
-    <col min="57" max="57" width="25.225" style="1" customWidth="1"/>
-    <col min="58" max="58" width="23.7" style="1" customWidth="1"/>
-    <col min="59" max="59" width="37.925" style="1" customWidth="1"/>
-    <col min="60" max="60" width="22.5916666666667" style="1" customWidth="1"/>
-    <col min="61" max="61" width="30.4666666666667" style="1" customWidth="1"/>
-    <col min="62" max="62" width="31.8583333333333" style="1" customWidth="1"/>
-    <col min="63" max="63" width="32.4666666666667" style="3" customWidth="1"/>
+    <col min="40" max="40" width="30.9807692307692" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.9711538461538" style="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7019230769231" style="1" customWidth="1"/>
+    <col min="43" max="44" width="27.6442307692308" style="1" customWidth="1"/>
+    <col min="45" max="45" width="27.7788461538462" style="2" customWidth="1"/>
+    <col min="46" max="49" width="27.7788461538462" style="1" customWidth="1"/>
+    <col min="50" max="52" width="24.0769230769231" style="1" customWidth="1"/>
+    <col min="53" max="53" width="21.1057692307692" style="1" customWidth="1"/>
+    <col min="54" max="54" width="22.0961538461538" style="1" customWidth="1"/>
+    <col min="55" max="55" width="29.7596153846154" style="1" customWidth="1"/>
+    <col min="56" max="56" width="20.1153846153846" style="1" customWidth="1"/>
+    <col min="57" max="57" width="25.2211538461538" style="1" customWidth="1"/>
+    <col min="58" max="58" width="23.7019230769231" style="1" customWidth="1"/>
+    <col min="59" max="59" width="37.9230769230769" style="1" customWidth="1"/>
+    <col min="60" max="60" width="22.5961538461538" style="1" customWidth="1"/>
+    <col min="61" max="61" width="30.4711538461538" style="1" customWidth="1"/>
+    <col min="62" max="62" width="31.8557692307692" style="1" customWidth="1"/>
+    <col min="63" max="63" width="32.4711538461538" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:63">
@@ -2677,7 +2664,7 @@
         <v>151</v>
       </c>
       <c r="Y5" s="1">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="Z5" s="1">
         <v>480</v>
@@ -3036,7 +3023,7 @@
         <v>141</v>
       </c>
       <c r="Y7" s="1">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="Z7" s="1">
         <v>120</v>
@@ -3395,7 +3382,7 @@
         <v>141</v>
       </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Z9" s="1">
         <v>300</v>
@@ -3716,7 +3703,7 @@
         <v>141</v>
       </c>
       <c r="Y11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="1">
         <v>180</v>
@@ -4043,7 +4030,7 @@
         <v>141</v>
       </c>
       <c r="Y13" s="1">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Z13" s="1">
         <v>150</v>
@@ -4396,7 +4383,7 @@
         <v>155</v>
       </c>
       <c r="Y15" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Z15" s="1">
         <v>700</v>
@@ -4743,13 +4730,13 @@
         <v>145</v>
       </c>
       <c r="Y17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z17" s="1">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="AA17" s="1">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="AB17" s="1">
         <v>0</v>
@@ -5081,7 +5068,7 @@
         <v>141</v>
       </c>
       <c r="Y19" s="1">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Z19" s="1">
         <v>300</v>
@@ -5425,7 +5412,7 @@
         <v>141</v>
       </c>
       <c r="Y21" s="1">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Z21" s="1">
         <v>180</v>
@@ -5769,7 +5756,7 @@
         <v>141</v>
       </c>
       <c r="Y23" s="1">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="Z23" s="1">
         <v>210</v>
@@ -6101,7 +6088,7 @@
         <v>155</v>
       </c>
       <c r="Y25" s="1">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="Z25" s="1">
         <v>700</v>
@@ -6442,13 +6429,13 @@
         <v>240</v>
       </c>
       <c r="Y27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z27" s="1">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AA27" s="1">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB27" s="1">
         <v>0</v>
@@ -6789,7 +6776,7 @@
         <v>141</v>
       </c>
       <c r="Y29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z29" s="1">
         <v>300</v>
@@ -7117,7 +7104,7 @@
         <v>141</v>
       </c>
       <c r="Y31" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Z31" s="1">
         <v>300</v>
@@ -7216,7 +7203,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7233,7 +7220,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/WeaponBase.xlsx
@@ -1778,11 +1778,11 @@
   <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="V14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="U22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
+      <selection pane="bottomRight" activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3382,13 +3382,13 @@
         <v>141</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="Z9" s="1">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="AA9" s="1">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>155</v>
       </c>
       <c r="Y15" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z15" s="1">
         <v>700</v>
@@ -6091,10 +6091,10 @@
         <v>1.6</v>
       </c>
       <c r="Z25" s="1">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="AA25" s="1">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
@@ -6776,7 +6776,7 @@
         <v>141</v>
       </c>
       <c r="Y29" s="1">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="Z29" s="1">
         <v>300</v>
@@ -7107,10 +7107,10 @@
         <v>0.5</v>
       </c>
       <c r="Z31" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AA31" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AB31" s="1">
         <v>0</v>

--- a/DungeonShooting_Godot/excel/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/WeaponBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12400"/>
+    <workbookView windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="249">
   <si>
     <t>Id</t>
   </si>
@@ -731,9 +731,6 @@
   </si>
   <si>
     <t>weapon0013</t>
-  </si>
-  <si>
-    <t>[1,1]</t>
   </si>
   <si>
     <t>shooting0013</t>
@@ -1778,11 +1775,11 @@
   <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AI23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA25" sqref="AA25"/>
+      <selection pane="bottomRight" activeCell="AM26" sqref="AM26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -6300,7 +6297,7 @@
         <v>2</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="AN26" s="1">
         <v>35</v>
@@ -6342,16 +6339,16 @@
         <v>146</v>
       </c>
       <c r="BA26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB26" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="BB26" s="5" t="s">
+      <c r="BC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="BC26" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF26" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="BG26" s="1">
         <v>0.35</v>
@@ -6360,7 +6357,7 @@
     </row>
     <row r="27" ht="57" customHeight="1" spans="1:63">
       <c r="A27" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>233</v>
@@ -6426,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y27" s="1">
         <v>3</v>
@@ -6471,7 +6468,7 @@
         <v>2</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="AN27" s="1">
         <v>35</v>
@@ -6513,16 +6510,16 @@
         <v>146</v>
       </c>
       <c r="BA27" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB27" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="BB27" s="5" t="s">
+      <c r="BC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="BC27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF27" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="BG27" s="1">
         <v>0.35</v>
@@ -6533,13 +6530,13 @@
     </row>
     <row r="28" ht="57" customHeight="1" spans="1:63">
       <c r="A28" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D28" s="1">
         <v>20</v>
@@ -6707,10 +6704,10 @@
     </row>
     <row r="29" ht="57" customHeight="1" spans="1:63">
       <c r="A29" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D29" s="1">
         <v>20</v>
@@ -6880,13 +6877,13 @@
     </row>
     <row r="30" ht="57" customHeight="1" spans="1:63">
       <c r="A30" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D30" s="1">
         <v>20</v>
@@ -6994,7 +6991,7 @@
         <v>4</v>
       </c>
       <c r="AM30" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AN30" s="1">
         <v>35</v>
@@ -7035,10 +7032,10 @@
     </row>
     <row r="31" ht="57" customHeight="1" spans="1:63">
       <c r="A31" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D31" s="1">
         <v>20</v>
@@ -7146,7 +7143,7 @@
         <v>4</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AN31" s="1">
         <v>35</v>
